--- a/tests/databooks/progbook_malaria.xlsx
+++ b/tests/databooks/progbook_malaria.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Program targeting" sheetId="1" r:id="rId1"/>
@@ -21694,10 +21694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114:G114"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21707,7 +21707,7 @@
     <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="str">
         <f>'Program targeting'!$A$3</f>
         <v>TXg</v>
@@ -21753,7 +21753,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -21764,41 +21764,41 @@
       </c>
       <c r="E2" s="5">
         <f>$C$3*E6</f>
-        <v>8312.8799999999992</v>
+        <v>3034201.1999999997</v>
       </c>
       <c r="F2" s="14">
         <f t="shared" ref="F2:L2" si="0">$C$3*F6</f>
-        <v>6263.16</v>
+        <v>2286053.4</v>
       </c>
       <c r="G2" s="14">
         <f t="shared" si="0"/>
-        <v>10075.32</v>
+        <v>3677491.8</v>
       </c>
       <c r="H2" s="14">
         <f t="shared" si="0"/>
-        <v>23556.959999999999</v>
+        <v>8598290.3999999985</v>
       </c>
       <c r="I2" s="14">
         <f t="shared" si="0"/>
-        <v>17005.379999999997</v>
+        <v>6206963.6999999993</v>
       </c>
       <c r="J2" s="14">
         <f t="shared" si="0"/>
-        <v>17013.359999999997</v>
+        <v>6209876.3999999994</v>
       </c>
       <c r="K2" s="14">
         <f t="shared" si="0"/>
-        <v>17442</v>
+        <v>6366329.9999999991</v>
       </c>
       <c r="L2" s="14">
         <f t="shared" si="0"/>
-        <v>17442</v>
+        <v>6366329.9999999991</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -21821,7 +21821,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
@@ -21842,7 +21842,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -21865,7 +21865,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -21875,34 +21875,66 @@
         <v>24</v>
       </c>
       <c r="E6" s="12">
-        <v>7292</v>
-      </c>
-      <c r="F6" s="12">
-        <v>5494</v>
-      </c>
-      <c r="G6" s="12">
-        <v>8838</v>
-      </c>
-      <c r="H6" s="12">
-        <v>20664</v>
-      </c>
-      <c r="I6" s="12">
-        <v>14917</v>
-      </c>
-      <c r="J6" s="12">
-        <v>14924</v>
-      </c>
-      <c r="K6" s="12">
-        <v>15300</v>
-      </c>
-      <c r="L6" s="12">
-        <v>15300</v>
+        <f>R6*365</f>
+        <v>2661580</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" ref="F6:L6" si="1">S6*365</f>
+        <v>2005310</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>3225870</v>
+      </c>
+      <c r="H6" s="22">
+        <f t="shared" si="1"/>
+        <v>7542360</v>
+      </c>
+      <c r="I6" s="22">
+        <f t="shared" si="1"/>
+        <v>5444705</v>
+      </c>
+      <c r="J6" s="22">
+        <f t="shared" si="1"/>
+        <v>5447260</v>
+      </c>
+      <c r="K6" s="22">
+        <f t="shared" si="1"/>
+        <v>5584500</v>
+      </c>
+      <c r="L6" s="22">
+        <f t="shared" si="1"/>
+        <v>5584500</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
+      <c r="R6">
+        <v>7292</v>
+      </c>
+      <c r="S6">
+        <v>5494</v>
+      </c>
+      <c r="T6">
+        <v>8838</v>
+      </c>
+      <c r="U6">
+        <v>20664</v>
+      </c>
+      <c r="V6">
+        <v>14917</v>
+      </c>
+      <c r="W6">
+        <v>14924</v>
+      </c>
+      <c r="X6">
+        <v>15300</v>
+      </c>
+      <c r="Y6">
+        <v>15300</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="str">
         <f>'Program targeting'!$A$4</f>
         <v>TXp</v>
@@ -21948,7 +21980,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -21959,41 +21991,41 @@
       </c>
       <c r="E9" s="5">
         <f>E13*$C$10</f>
-        <v>295.26</v>
+        <v>107769.9</v>
       </c>
       <c r="F9" s="14">
-        <f t="shared" ref="F9:L9" si="1">F13*$C$10</f>
-        <v>214.32</v>
+        <f t="shared" ref="F9:L9" si="2">F13*$C$10</f>
+        <v>78226.799999999988</v>
       </c>
       <c r="G9" s="14">
-        <f t="shared" si="1"/>
-        <v>391.02</v>
+        <f t="shared" si="2"/>
+        <v>142722.29999999999</v>
       </c>
       <c r="H9" s="14">
-        <f t="shared" si="1"/>
-        <v>933.66</v>
+        <f t="shared" si="2"/>
+        <v>340785.89999999997</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" si="1"/>
-        <v>654.3599999999999</v>
+        <f t="shared" si="2"/>
+        <v>238841.39999999997</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="1"/>
-        <v>653.21999999999991</v>
+        <f t="shared" si="2"/>
+        <v>238425.3</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" si="1"/>
-        <v>476.52</v>
+        <f t="shared" si="2"/>
+        <v>173929.8</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="1"/>
-        <v>476.52</v>
+        <f t="shared" si="2"/>
+        <v>173929.8</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -22016,7 +22048,7 @@
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -22037,7 +22069,7 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -22060,7 +22092,7 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -22070,34 +22102,66 @@
         <v>24</v>
       </c>
       <c r="E13" s="13">
-        <v>259</v>
-      </c>
-      <c r="F13" s="13">
-        <v>188</v>
-      </c>
-      <c r="G13" s="13">
-        <v>343</v>
-      </c>
-      <c r="H13" s="13">
-        <v>819</v>
-      </c>
-      <c r="I13" s="13">
-        <v>574</v>
-      </c>
-      <c r="J13" s="13">
-        <v>573</v>
-      </c>
-      <c r="K13" s="13">
-        <v>418</v>
-      </c>
-      <c r="L13" s="13">
-        <v>418</v>
+        <f>R13*365</f>
+        <v>94535</v>
+      </c>
+      <c r="F13" s="46">
+        <f t="shared" ref="F13:L13" si="3">S13*365</f>
+        <v>68620</v>
+      </c>
+      <c r="G13" s="46">
+        <f t="shared" si="3"/>
+        <v>125195</v>
+      </c>
+      <c r="H13" s="46">
+        <f t="shared" si="3"/>
+        <v>298935</v>
+      </c>
+      <c r="I13" s="46">
+        <f t="shared" si="3"/>
+        <v>209510</v>
+      </c>
+      <c r="J13" s="46">
+        <f t="shared" si="3"/>
+        <v>209145</v>
+      </c>
+      <c r="K13" s="46">
+        <f t="shared" si="3"/>
+        <v>152570</v>
+      </c>
+      <c r="L13" s="46">
+        <f t="shared" si="3"/>
+        <v>152570</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
+      <c r="R13">
+        <v>259</v>
+      </c>
+      <c r="S13">
+        <v>188</v>
+      </c>
+      <c r="T13">
+        <v>343</v>
+      </c>
+      <c r="U13">
+        <v>819</v>
+      </c>
+      <c r="V13">
+        <v>574</v>
+      </c>
+      <c r="W13">
+        <v>573</v>
+      </c>
+      <c r="X13">
+        <v>418</v>
+      </c>
+      <c r="Y13">
+        <v>418</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="str">
         <f>'Program targeting'!$A$5</f>
         <v>TXc</v>
@@ -22143,7 +22207,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -22154,41 +22218,41 @@
       </c>
       <c r="E16" s="5">
         <f>E20*$C$17</f>
-        <v>2874.3</v>
+        <v>1049119.5</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" ref="F16:L16" si="2">F20*$C$17</f>
-        <v>2117.0500000000002</v>
+        <f t="shared" ref="F16:L16" si="4">F20*$C$17</f>
+        <v>772723.25</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="2"/>
-        <v>3484</v>
+        <f t="shared" si="4"/>
+        <v>1271660</v>
       </c>
       <c r="H16" s="14">
-        <f t="shared" si="2"/>
-        <v>8385</v>
+        <f t="shared" si="4"/>
+        <v>3060525</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="2"/>
-        <v>5955.3</v>
+        <f t="shared" si="4"/>
+        <v>2173684.5</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="2"/>
-        <v>5951.4000000000005</v>
+        <f t="shared" si="4"/>
+        <v>2172261</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" si="2"/>
-        <v>4410.25</v>
+        <f t="shared" si="4"/>
+        <v>1609741.25</v>
       </c>
       <c r="L16" s="14">
-        <f t="shared" si="2"/>
-        <v>4410.25</v>
+        <f t="shared" si="4"/>
+        <v>1609741.25</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -22211,7 +22275,7 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
@@ -22232,7 +22296,7 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
@@ -22255,7 +22319,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>28</v>
       </c>
@@ -22265,34 +22329,66 @@
         <v>24</v>
       </c>
       <c r="E20" s="15">
-        <v>4422</v>
-      </c>
-      <c r="F20" s="15">
-        <v>3257</v>
-      </c>
-      <c r="G20" s="15">
-        <v>5360</v>
-      </c>
-      <c r="H20" s="15">
-        <v>12900</v>
-      </c>
-      <c r="I20" s="15">
-        <v>9162</v>
-      </c>
-      <c r="J20" s="15">
-        <v>9156</v>
-      </c>
-      <c r="K20" s="15">
-        <v>6785</v>
-      </c>
-      <c r="L20" s="15">
-        <v>6785</v>
+        <f>R20*365</f>
+        <v>1614030</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" ref="F20:L20" si="5">S20*365</f>
+        <v>1188805</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="5"/>
+        <v>1956400</v>
+      </c>
+      <c r="H20" s="22">
+        <f t="shared" si="5"/>
+        <v>4708500</v>
+      </c>
+      <c r="I20" s="22">
+        <f t="shared" si="5"/>
+        <v>3344130</v>
+      </c>
+      <c r="J20" s="22">
+        <f t="shared" si="5"/>
+        <v>3341940</v>
+      </c>
+      <c r="K20" s="22">
+        <f t="shared" si="5"/>
+        <v>2476525</v>
+      </c>
+      <c r="L20" s="22">
+        <f t="shared" si="5"/>
+        <v>2476525</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
+      <c r="R20">
+        <v>4422</v>
+      </c>
+      <c r="S20">
+        <v>3257</v>
+      </c>
+      <c r="T20">
+        <v>5360</v>
+      </c>
+      <c r="U20">
+        <v>12900</v>
+      </c>
+      <c r="V20">
+        <v>9162</v>
+      </c>
+      <c r="W20">
+        <v>9156</v>
+      </c>
+      <c r="X20">
+        <v>6785</v>
+      </c>
+      <c r="Y20">
+        <v>6785</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="str">
         <f>'Program targeting'!$A$6</f>
         <v>DXg</v>
@@ -22338,7 +22434,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -22349,41 +22445,41 @@
       </c>
       <c r="E23" s="5">
         <f>E27*$C$24</f>
-        <v>14219.4</v>
+        <v>5190081</v>
       </c>
       <c r="F23" s="21">
-        <f t="shared" ref="F23:L23" si="3">F27*$C$24</f>
-        <v>10713.3</v>
+        <f t="shared" ref="F23:L23" si="6">F27*$C$24</f>
+        <v>3910354.5</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" si="3"/>
-        <v>17234.099999999999</v>
+        <f t="shared" si="6"/>
+        <v>6290446.5</v>
       </c>
       <c r="H23" s="21">
-        <f t="shared" si="3"/>
-        <v>40294.799999999996</v>
+        <f t="shared" si="6"/>
+        <v>14707602</v>
       </c>
       <c r="I23" s="21">
-        <f t="shared" si="3"/>
-        <v>29088.149999999998</v>
+        <f t="shared" si="6"/>
+        <v>10617174.75</v>
       </c>
       <c r="J23" s="21">
-        <f t="shared" si="3"/>
-        <v>29101.8</v>
+        <f t="shared" si="6"/>
+        <v>10622157</v>
       </c>
       <c r="K23" s="21">
-        <f t="shared" si="3"/>
-        <v>21225.75</v>
+        <f t="shared" si="6"/>
+        <v>7747398.75</v>
       </c>
       <c r="L23" s="21">
-        <f t="shared" si="3"/>
-        <v>21225.75</v>
+        <f t="shared" si="6"/>
+        <v>7747398.75</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
@@ -22406,7 +22502,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -22427,7 +22523,7 @@
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -22450,7 +22546,7 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -22460,34 +22556,66 @@
         <v>24</v>
       </c>
       <c r="E27" s="22">
-        <v>7292</v>
+        <f>R27*365</f>
+        <v>2661580</v>
       </c>
       <c r="F27" s="22">
-        <v>5494</v>
+        <f t="shared" ref="F27:L27" si="7">S27*365</f>
+        <v>2005310</v>
       </c>
       <c r="G27" s="22">
-        <v>8838</v>
+        <f t="shared" si="7"/>
+        <v>3225870</v>
       </c>
       <c r="H27" s="22">
-        <v>20664</v>
+        <f t="shared" si="7"/>
+        <v>7542360</v>
       </c>
       <c r="I27" s="22">
-        <v>14917</v>
+        <f t="shared" si="7"/>
+        <v>5444705</v>
       </c>
       <c r="J27" s="22">
-        <v>14924</v>
+        <f t="shared" si="7"/>
+        <v>5447260</v>
       </c>
       <c r="K27" s="22">
-        <v>10885</v>
+        <f t="shared" si="7"/>
+        <v>3973025</v>
       </c>
       <c r="L27" s="22">
-        <v>10885</v>
+        <f t="shared" si="7"/>
+        <v>3973025</v>
       </c>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5"/>
+      <c r="R27">
+        <v>7292</v>
+      </c>
+      <c r="S27">
+        <v>5494</v>
+      </c>
+      <c r="T27">
+        <v>8838</v>
+      </c>
+      <c r="U27">
+        <v>20664</v>
+      </c>
+      <c r="V27">
+        <v>14917</v>
+      </c>
+      <c r="W27">
+        <v>14924</v>
+      </c>
+      <c r="X27">
+        <v>10885</v>
+      </c>
+      <c r="Y27">
+        <v>10885</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="str">
         <f>'Program targeting'!$A$7</f>
         <v>DXp</v>
@@ -22533,7 +22661,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
@@ -22544,41 +22672,41 @@
       </c>
       <c r="E30" s="5">
         <f>E34*$C$31</f>
-        <v>505.05</v>
+        <v>184343.25</v>
       </c>
       <c r="F30" s="21">
-        <f t="shared" ref="F30:L30" si="4">F34*$C$31</f>
-        <v>366.59999999999997</v>
+        <f t="shared" ref="F30:L30" si="8">F34*$C$31</f>
+        <v>133809</v>
       </c>
       <c r="G30" s="21">
-        <f t="shared" si="4"/>
-        <v>668.85</v>
+        <f t="shared" si="8"/>
+        <v>244130.25</v>
       </c>
       <c r="H30" s="21">
-        <f t="shared" si="4"/>
-        <v>1597.05</v>
+        <f t="shared" si="8"/>
+        <v>582923.25</v>
       </c>
       <c r="I30" s="21">
-        <f t="shared" si="4"/>
-        <v>1119.3</v>
+        <f t="shared" si="8"/>
+        <v>408544.5</v>
       </c>
       <c r="J30" s="21">
-        <f t="shared" si="4"/>
-        <v>1117.3499999999999</v>
+        <f t="shared" si="8"/>
+        <v>407832.75</v>
       </c>
       <c r="K30" s="21">
-        <f t="shared" si="4"/>
-        <v>815.1</v>
+        <f t="shared" si="8"/>
+        <v>297511.5</v>
       </c>
       <c r="L30" s="21">
-        <f t="shared" si="4"/>
-        <v>815.1</v>
+        <f t="shared" si="8"/>
+        <v>297511.5</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -22601,7 +22729,7 @@
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -22622,7 +22750,7 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -22645,7 +22773,7 @@
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -22655,34 +22783,66 @@
         <v>24</v>
       </c>
       <c r="E34" s="20">
-        <v>259</v>
-      </c>
-      <c r="F34" s="20">
-        <v>188</v>
-      </c>
-      <c r="G34" s="20">
-        <v>343</v>
-      </c>
-      <c r="H34" s="20">
-        <v>819</v>
-      </c>
-      <c r="I34" s="20">
-        <v>574</v>
-      </c>
-      <c r="J34" s="20">
-        <v>573</v>
-      </c>
-      <c r="K34" s="20">
-        <v>418</v>
-      </c>
-      <c r="L34" s="20">
-        <v>418</v>
+        <f>R34*365</f>
+        <v>94535</v>
+      </c>
+      <c r="F34" s="46">
+        <f t="shared" ref="F34:L34" si="9">S34*365</f>
+        <v>68620</v>
+      </c>
+      <c r="G34" s="46">
+        <f t="shared" si="9"/>
+        <v>125195</v>
+      </c>
+      <c r="H34" s="46">
+        <f t="shared" si="9"/>
+        <v>298935</v>
+      </c>
+      <c r="I34" s="46">
+        <f t="shared" si="9"/>
+        <v>209510</v>
+      </c>
+      <c r="J34" s="46">
+        <f t="shared" si="9"/>
+        <v>209145</v>
+      </c>
+      <c r="K34" s="46">
+        <f t="shared" si="9"/>
+        <v>152570</v>
+      </c>
+      <c r="L34" s="46">
+        <f t="shared" si="9"/>
+        <v>152570</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5"/>
+      <c r="R34">
+        <v>259</v>
+      </c>
+      <c r="S34">
+        <v>188</v>
+      </c>
+      <c r="T34">
+        <v>343</v>
+      </c>
+      <c r="U34">
+        <v>819</v>
+      </c>
+      <c r="V34">
+        <v>574</v>
+      </c>
+      <c r="W34">
+        <v>573</v>
+      </c>
+      <c r="X34">
+        <v>418</v>
+      </c>
+      <c r="Y34">
+        <v>418</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="str">
         <f>'Program targeting'!$A$8</f>
         <v>DXc</v>
@@ -22728,7 +22888,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>23</v>
       </c>
@@ -22739,41 +22899,41 @@
       </c>
       <c r="E37" s="5">
         <f>E41*$C$38</f>
-        <v>8622.9</v>
+        <v>3147358.5</v>
       </c>
       <c r="F37" s="21">
-        <f t="shared" ref="F37:L37" si="5">F41*$C$38</f>
-        <v>6351.15</v>
+        <f t="shared" ref="F37:L37" si="10">F41*$C$38</f>
+        <v>2318169.75</v>
       </c>
       <c r="G37" s="21">
-        <f t="shared" si="5"/>
-        <v>10452</v>
+        <f t="shared" si="10"/>
+        <v>3814980</v>
       </c>
       <c r="H37" s="21">
-        <f t="shared" si="5"/>
-        <v>25155</v>
+        <f t="shared" si="10"/>
+        <v>9181575</v>
       </c>
       <c r="I37" s="21">
-        <f t="shared" si="5"/>
-        <v>17865.899999999998</v>
+        <f t="shared" si="10"/>
+        <v>6521053.5</v>
       </c>
       <c r="J37" s="21">
-        <f t="shared" si="5"/>
-        <v>17854.2</v>
+        <f t="shared" si="10"/>
+        <v>6516783</v>
       </c>
       <c r="K37" s="21">
-        <f t="shared" si="5"/>
-        <v>13022.1</v>
+        <f t="shared" si="10"/>
+        <v>4753066.5</v>
       </c>
       <c r="L37" s="21">
-        <f t="shared" si="5"/>
-        <v>13022.1</v>
+        <f t="shared" si="10"/>
+        <v>4753066.5</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
@@ -22796,7 +22956,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -22817,7 +22977,7 @@
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
@@ -22840,7 +23000,7 @@
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
@@ -22850,34 +23010,66 @@
         <v>24</v>
       </c>
       <c r="E41" s="19">
-        <v>4422</v>
-      </c>
-      <c r="F41" s="19">
-        <v>3257</v>
-      </c>
-      <c r="G41" s="19">
-        <v>5360</v>
-      </c>
-      <c r="H41" s="19">
-        <v>12900</v>
-      </c>
-      <c r="I41" s="19">
-        <v>9162</v>
-      </c>
-      <c r="J41" s="19">
-        <v>9156</v>
-      </c>
-      <c r="K41" s="19">
-        <v>6678</v>
-      </c>
-      <c r="L41" s="19">
-        <v>6678</v>
+        <f>R41*365</f>
+        <v>1614030</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" ref="F41:L41" si="11">S41*365</f>
+        <v>1188805</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="11"/>
+        <v>1956400</v>
+      </c>
+      <c r="H41" s="22">
+        <f t="shared" si="11"/>
+        <v>4708500</v>
+      </c>
+      <c r="I41" s="22">
+        <f t="shared" si="11"/>
+        <v>3344130</v>
+      </c>
+      <c r="J41" s="22">
+        <f t="shared" si="11"/>
+        <v>3341940</v>
+      </c>
+      <c r="K41" s="22">
+        <f t="shared" si="11"/>
+        <v>2437470</v>
+      </c>
+      <c r="L41" s="22">
+        <f t="shared" si="11"/>
+        <v>2437470</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
+      <c r="R41">
+        <v>4422</v>
+      </c>
+      <c r="S41">
+        <v>3257</v>
+      </c>
+      <c r="T41">
+        <v>5360</v>
+      </c>
+      <c r="U41">
+        <v>12900</v>
+      </c>
+      <c r="V41">
+        <v>9162</v>
+      </c>
+      <c r="W41">
+        <v>9156</v>
+      </c>
+      <c r="X41">
+        <v>6678</v>
+      </c>
+      <c r="Y41">
+        <v>6678</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="str">
         <f>'Program targeting'!$A$9</f>
         <v>BCCg</v>
@@ -22923,7 +23115,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>23</v>
       </c>
@@ -22932,19 +23124,25 @@
       <c r="D44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
+      <c r="E44" s="5">
+        <f>E48*$C$45</f>
+        <v>294540.91800000001</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46">
+        <f t="shared" ref="F44:J44" si="12">J48*$C$45</f>
+        <v>587761.32277499989</v>
+      </c>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>25</v>
       </c>
@@ -22966,8 +23164,17 @@
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
+      <c r="R45">
+        <v>49090153</v>
+      </c>
+      <c r="S45">
+        <v>53359148</v>
+      </c>
+      <c r="T45">
+        <v>56379983</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
@@ -22987,8 +23194,17 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
+      <c r="R46">
+        <v>887333</v>
+      </c>
+      <c r="S46">
+        <v>1037217</v>
+      </c>
+      <c r="T46">
+        <v>1073950</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>27</v>
       </c>
@@ -23010,8 +23226,17 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
+      <c r="R47">
+        <v>10509301</v>
+      </c>
+      <c r="S47">
+        <v>11341877</v>
+      </c>
+      <c r="T47">
+        <v>11914555</v>
+      </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>28</v>
       </c>
@@ -23021,19 +23246,19 @@
         <v>24</v>
       </c>
       <c r="E48" s="26">
-        <v>0.2</v>
+        <f>0.2*R45</f>
+        <v>9818030.5999999996</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
       <c r="H48" s="26"/>
       <c r="I48" s="26"/>
       <c r="J48" s="26">
-        <v>0.34749999999999998</v>
+        <f>T45 *0.3475</f>
+        <v>19592044.092499997</v>
       </c>
       <c r="K48" s="26"/>
-      <c r="L48" s="26">
-        <v>0.34749999999999998</v>
-      </c>
+      <c r="L48" s="26"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
@@ -23093,12 +23318,18 @@
       <c r="D51" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
+      <c r="E51" s="5">
+        <f>$C$52*E55</f>
+        <v>5323.9979999999996</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46">
+        <f t="shared" ref="F51:J51" si="13">$C$52*J55</f>
+        <v>11195.928749999999</v>
+      </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -23182,19 +23413,19 @@
         <v>24</v>
       </c>
       <c r="E55" s="27">
-        <v>0.2</v>
+        <f>0.2*R46</f>
+        <v>177466.6</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
       <c r="J55" s="27">
-        <v>0.34749999999999998</v>
+        <f>0.3475*T46</f>
+        <v>373197.625</v>
       </c>
       <c r="K55" s="27"/>
-      <c r="L55" s="27">
-        <v>0.34749999999999998</v>
-      </c>
+      <c r="L55" s="27"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
@@ -23254,12 +23485,18 @@
       <c r="D58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="46">
+        <f>$C$59*E62</f>
+        <v>63055.806000000004</v>
+      </c>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
+      <c r="J58" s="46">
+        <f>$C$59*J62</f>
+        <v>124209.23587499998</v>
+      </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -23343,19 +23580,19 @@
         <v>24</v>
       </c>
       <c r="E62" s="28">
-        <v>0.2</v>
+        <f>0.2*R47</f>
+        <v>2101860.2000000002</v>
       </c>
       <c r="F62" s="28"/>
       <c r="G62" s="28"/>
       <c r="H62" s="28"/>
       <c r="I62" s="28"/>
       <c r="J62" s="28">
-        <v>0.34749999999999998</v>
+        <f>0.3475*T47</f>
+        <v>4140307.8624999998</v>
       </c>
       <c r="K62" s="28"/>
-      <c r="L62" s="28">
-        <v>0.34749999999999998</v>
-      </c>
+      <c r="L62" s="28"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -23415,12 +23652,21 @@
       <c r="D65" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
+      <c r="E65" s="46">
+        <f>$C$66*E69</f>
+        <v>193261.12740000003</v>
+      </c>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46">
+        <f t="shared" ref="F65:J65" si="14">$C$66*H69</f>
+        <v>346845.36480000004</v>
+      </c>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46">
+        <f t="shared" si="14"/>
+        <v>519791.80000000005</v>
+      </c>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
@@ -23504,23 +23750,22 @@
         <v>24</v>
       </c>
       <c r="E69" s="30">
-        <v>0.19800000000000001</v>
+        <f>0.198*R46</f>
+        <v>175691.93400000001</v>
       </c>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30">
-        <v>0.30399999999999999</v>
+        <f>0.304*S46</f>
+        <v>315313.96799999999</v>
       </c>
       <c r="I69" s="30"/>
       <c r="J69" s="30">
-        <v>0.44</v>
-      </c>
-      <c r="K69" s="30">
-        <v>0.47</v>
-      </c>
-      <c r="L69" s="30">
-        <v>0.47</v>
-      </c>
+        <f>0.44*T46</f>
+        <v>472538</v>
+      </c>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
       <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
@@ -23580,12 +23825,18 @@
       <c r="D72" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
+      <c r="E72" s="46">
+        <f>$C$73*E76</f>
+        <v>7154740.0870819995</v>
+      </c>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46">
+        <f t="shared" ref="F72:J72" si="15">$C$73*J76</f>
+        <v>7429365.0647999998</v>
+      </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -23669,19 +23920,19 @@
         <v>24</v>
       </c>
       <c r="E76" s="32">
-        <v>4.9700000000000001E-2</v>
+        <f>0.0497 * SUM(R45:R47)</f>
+        <v>3006193.3139</v>
       </c>
       <c r="F76" s="32"/>
       <c r="G76" s="32"/>
       <c r="H76" s="32"/>
       <c r="I76" s="32"/>
       <c r="J76" s="32">
-        <v>4.4999999999999998E-2</v>
+        <f>0.045* SUM(T45:T47)</f>
+        <v>3121581.96</v>
       </c>
       <c r="K76" s="32"/>
-      <c r="L76" s="32">
-        <v>0</v>
-      </c>
+      <c r="L76" s="32"/>
       <c r="M76" s="5"/>
       <c r="N76" s="5"/>
       <c r="O76" s="5"/>
@@ -23920,12 +24171,18 @@
       <c r="D86" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
+      <c r="E86" s="46">
+        <f>$C$87*E90</f>
+        <v>61500143.678399988</v>
+      </c>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46">
+        <f t="shared" ref="F86:J86" si="16">$C$87*J90</f>
+        <v>100063193.82840002</v>
+      </c>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
@@ -24009,19 +24266,19 @@
         <v>24</v>
       </c>
       <c r="E90" s="39">
-        <v>0.48</v>
+        <f>0.48*R45</f>
+        <v>23563273.439999998</v>
       </c>
       <c r="F90" s="39"/>
       <c r="G90" s="39"/>
       <c r="H90" s="39"/>
       <c r="I90" s="39"/>
       <c r="J90" s="39">
-        <v>0.68</v>
+        <f>0.68*T45</f>
+        <v>38338388.440000005</v>
       </c>
       <c r="K90" s="39"/>
-      <c r="L90" s="39">
-        <v>0.68</v>
-      </c>
+      <c r="L90" s="39"/>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
       <c r="O90" s="5"/>
@@ -24081,12 +24338,18 @@
       <c r="D93" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="46">
+        <f>$C$94*E97</f>
+        <v>1111650.7823999999</v>
+      </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
+      <c r="J93" s="46">
+        <f>$C$94*J97</f>
+        <v>2214377.5049999999</v>
+      </c>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
@@ -24170,19 +24433,19 @@
         <v>24</v>
       </c>
       <c r="E97" s="40">
-        <v>0.48</v>
+        <f>0.48 *R46</f>
+        <v>425919.83999999997</v>
       </c>
       <c r="F97" s="40"/>
       <c r="G97" s="40"/>
       <c r="H97" s="40"/>
       <c r="I97" s="40"/>
       <c r="J97" s="40">
-        <v>0.79</v>
+        <f>0.79*T46</f>
+        <v>848420.5</v>
       </c>
       <c r="K97" s="40"/>
-      <c r="L97" s="40">
-        <v>0.79</v>
-      </c>
+      <c r="L97" s="40"/>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
@@ -24242,12 +24505,18 @@
       <c r="D100" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="46">
+        <f>$C$101*E104</f>
+        <v>13166052.292799998</v>
+      </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
+      <c r="J100" s="46">
+        <f>$C$101*J104</f>
+        <v>24255651.068999998</v>
+      </c>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -24331,19 +24600,19 @@
         <v>24</v>
       </c>
       <c r="E104" s="41">
-        <v>0.48</v>
+        <f>0.48*R47</f>
+        <v>5044464.4799999995</v>
       </c>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
       <c r="H104" s="41"/>
       <c r="I104" s="41"/>
       <c r="J104" s="41">
-        <v>0.78</v>
+        <f>0.78*T47</f>
+        <v>9293352.9000000004</v>
       </c>
       <c r="K104" s="41"/>
-      <c r="L104" s="41">
-        <v>0.78</v>
-      </c>
+      <c r="L104" s="41"/>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
@@ -24422,9 +24691,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="44"/>
-      <c r="L107" s="44">
-        <v>0</v>
-      </c>
+      <c r="L107" s="44"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
@@ -24524,9 +24791,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="45"/>
-      <c r="L111" s="45">
-        <v>0</v>
-      </c>
+      <c r="L111" s="45"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
@@ -24597,7 +24862,10 @@
       </c>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
+      <c r="J114" s="46">
+        <f>$C$115*J118</f>
+        <v>2272701.36625</v>
+      </c>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
@@ -24692,12 +24960,11 @@
       <c r="H118" s="46"/>
       <c r="I118" s="46"/>
       <c r="J118" s="46">
-        <v>0.109</v>
+        <f>0.109*T47</f>
+        <v>1298686.4950000001</v>
       </c>
       <c r="K118" s="46"/>
-      <c r="L118" s="46">
-        <v>0.109</v>
-      </c>
+      <c r="L118" s="46"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
@@ -25391,7 +25658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q39" sqref="Q39"/>
     </sheetView>

--- a/tests/databooks/progbook_malaria.xlsx
+++ b/tests/databooks/progbook_malaria.xlsx
@@ -764,7 +764,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -898,6 +898,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -21696,8 +21699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="J115" sqref="J115"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23133,11 +23136,13 @@
       <c r="H44" s="46"/>
       <c r="I44" s="46"/>
       <c r="J44" s="46">
-        <f t="shared" ref="F44:J44" si="12">J48*$C$45</f>
+        <f t="shared" ref="J44" si="12">J48*$C$45</f>
         <v>587761.32277499989</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
+      <c r="L44" s="47">
+        <v>0</v>
+      </c>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -23327,11 +23332,11 @@
       <c r="H51" s="46"/>
       <c r="I51" s="46"/>
       <c r="J51" s="46">
-        <f t="shared" ref="F51:J51" si="13">$C$52*J55</f>
+        <f t="shared" ref="J51" si="13">$C$52*J55</f>
         <v>11195.928749999999</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
+      <c r="L51" s="47"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
@@ -23659,7 +23664,7 @@
       <c r="F65" s="46"/>
       <c r="G65" s="46"/>
       <c r="H65" s="46">
-        <f t="shared" ref="F65:J65" si="14">$C$66*H69</f>
+        <f t="shared" ref="H65:J65" si="14">$C$66*H69</f>
         <v>346845.36480000004</v>
       </c>
       <c r="I65" s="46"/>
@@ -23834,11 +23839,11 @@
       <c r="H72" s="46"/>
       <c r="I72" s="46"/>
       <c r="J72" s="46">
-        <f t="shared" ref="F72:J72" si="15">$C$73*J76</f>
+        <f t="shared" ref="J72" si="15">$C$73*J76</f>
         <v>7429365.0647999998</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
+      <c r="L72" s="47"/>
       <c r="M72" s="5"/>
       <c r="N72" s="5"/>
       <c r="O72" s="5"/>
@@ -24011,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
+      <c r="L79" s="47"/>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
       <c r="O79" s="5"/>
@@ -24180,12 +24185,14 @@
       <c r="H86" s="46"/>
       <c r="I86" s="46"/>
       <c r="J86" s="46">
-        <f t="shared" ref="F86:J86" si="16">$C$87*J90</f>
+        <f t="shared" ref="J86" si="16">$C$87*J90</f>
         <v>100063193.82840002</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
+      <c r="L86" s="47">
+        <v>10000000000</v>
+      </c>
+      <c r="M86" s="47"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
     </row>
@@ -24691,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="44"/>
-      <c r="L107" s="44"/>
+      <c r="L107" s="47"/>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
@@ -25659,8 +25666,8 @@
   <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q39" sqref="Q39"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26048,7 +26055,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
       <c r="S9" s="5">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
@@ -26082,13 +26089,13 @@
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="5">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -26126,7 +26133,7 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -27126,10 +27133,10 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="R38" s="5">
-        <v>1.1000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>

--- a/tests/databooks/progbook_malaria.xlsx
+++ b/tests/databooks/progbook_malaria.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="85">
   <si>
     <t>Targeted to (populations)</t>
   </si>
@@ -232,9 +232,6 @@
   </si>
   <si>
     <t>Additive</t>
-  </si>
-  <si>
-    <t>Best</t>
   </si>
   <si>
     <t>Factor to modify bites in human population (for nested programs)</t>
@@ -7448,9 +7445,7 @@
       <c r="C2" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -7478,9 +7473,7 @@
       <c r="C3" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -7512,9 +7505,7 @@
       <c r="C4" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -7546,9 +7537,7 @@
       <c r="C5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -7571,7 +7560,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>68</v>
@@ -7651,7 +7640,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -7679,10 +7668,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="5"/>
       <c r="G9" s="5"/>
@@ -7713,10 +7702,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="5"/>
       <c r="G10" s="5"/>
@@ -7749,10 +7738,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="5"/>
       <c r="G11" s="5"/>
@@ -7776,7 +7765,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>68</v>
@@ -7858,9 +7847,7 @@
       <c r="C14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -7890,9 +7877,7 @@
       <c r="C15" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -7920,9 +7905,7 @@
       <c r="C16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -7950,9 +7933,7 @@
       <c r="C17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -7971,7 +7952,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>68</v>
@@ -8053,9 +8034,7 @@
       <c r="C20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -8085,9 +8064,7 @@
       <c r="C21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -8115,9 +8092,7 @@
       <c r="C22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -8145,9 +8120,7 @@
       <c r="C23" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -8166,7 +8139,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>68</v>
@@ -8248,9 +8221,7 @@
       <c r="C26" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -8282,9 +8253,7 @@
       <c r="C27" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -8312,9 +8281,7 @@
       <c r="C28" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -8342,9 +8309,7 @@
       <c r="C29" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -8363,7 +8328,7 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>68</v>
@@ -8445,9 +8410,7 @@
       <c r="C32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -8475,9 +8438,7 @@
       <c r="C33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="G33" s="6">
         <v>0.73</v>
@@ -8507,9 +8468,7 @@
       <c r="C34" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D34" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6">
@@ -8539,9 +8498,7 @@
       <c r="C35" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -8562,7 +8519,7 @@
     </row>
     <row r="37" spans="1:20">
       <c r="A37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>68</v>
@@ -8644,9 +8601,7 @@
       <c r="C38" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -8674,9 +8629,7 @@
       <c r="C39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="G39" s="6">
         <v>0.05</v>
@@ -8706,9 +8659,7 @@
       <c r="C40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="6">
@@ -8738,9 +8689,7 @@
       <c r="C41" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -8761,7 +8710,7 @@
     </row>
     <row r="43" spans="1:20">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>68</v>
@@ -8843,9 +8792,7 @@
       <c r="C44" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -8873,9 +8820,7 @@
       <c r="C45" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="G45" s="6">
         <v>0.01</v>
@@ -8905,9 +8850,7 @@
       <c r="C46" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="6">
@@ -8937,9 +8880,7 @@
       <c r="C47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -8960,7 +8901,7 @@
     </row>
     <row r="49" spans="1:20">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>68</v>
@@ -9042,9 +8983,7 @@
       <c r="C50" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -9072,9 +9011,7 @@
       <c r="C51" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="G51" s="6">
         <v>0.01</v>
@@ -9104,9 +9041,7 @@
       <c r="C52" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="G52" s="5"/>
       <c r="H52" s="6">
@@ -9136,9 +9071,7 @@
       <c r="C53" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -9159,7 +9092,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>68</v>
@@ -9241,9 +9174,7 @@
       <c r="C56" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D56" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -9271,9 +9202,7 @@
       <c r="C57" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="G57" s="6">
         <v>0.2</v>
@@ -9303,9 +9232,7 @@
       <c r="C58" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="G58" s="5"/>
       <c r="H58" s="6">
@@ -9335,9 +9262,7 @@
       <c r="C59" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>72</v>
-      </c>
+      <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -9357,51 +9282,371 @@
       <c r="T59" s="5"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="1" priority="209">
+      <formula>COUNTIF(F10:T10,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="210">
+      <formula>AND(COUNTIF(F10:T10,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="1" priority="239">
+      <formula>COUNTIF(F11:T11,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="240">
+      <formula>AND(COUNTIF(F11:T11,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="expression" dxfId="1" priority="269">
+      <formula>COUNTIF(F14:T14,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="270">
+      <formula>AND(COUNTIF(F14:T14,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="expression" dxfId="1" priority="299">
+      <formula>COUNTIF(F15:T15,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="300">
+      <formula>AND(COUNTIF(F15:T15,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="expression" dxfId="1" priority="329">
+      <formula>COUNTIF(F16:T16,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="330">
+      <formula>AND(COUNTIF(F16:T16,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="expression" dxfId="1" priority="359">
+      <formula>COUNTIF(F17:T17,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="360">
+      <formula>AND(COUNTIF(F17:T17,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" dxfId="1" priority="29">
+      <formula>COUNTIF(F2:T2,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="30">
+      <formula>AND(COUNTIF(F2:T2,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="expression" dxfId="1" priority="389">
+      <formula>COUNTIF(F20:T20,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="390">
+      <formula>AND(COUNTIF(F20:T20,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="expression" dxfId="1" priority="419">
+      <formula>COUNTIF(F21:T21,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="420">
+      <formula>AND(COUNTIF(F21:T21,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="expression" dxfId="1" priority="449">
+      <formula>COUNTIF(F22:T22,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="450">
+      <formula>AND(COUNTIF(F22:T22,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23">
+    <cfRule type="expression" dxfId="1" priority="479">
+      <formula>COUNTIF(F23:T23,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="480">
+      <formula>AND(COUNTIF(F23:T23,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="expression" dxfId="1" priority="509">
+      <formula>COUNTIF(F26:T26,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="510">
+      <formula>AND(COUNTIF(F26:T26,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="expression" dxfId="1" priority="539">
+      <formula>COUNTIF(F27:T27,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="540">
+      <formula>AND(COUNTIF(F27:T27,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28">
+    <cfRule type="expression" dxfId="1" priority="569">
+      <formula>COUNTIF(F28:T28,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="570">
+      <formula>AND(COUNTIF(F28:T28,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="expression" dxfId="1" priority="599">
+      <formula>COUNTIF(F29:T29,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="600">
+      <formula>AND(COUNTIF(F29:T29,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="1" priority="59">
+      <formula>COUNTIF(F3:T3,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="60">
+      <formula>AND(COUNTIF(F3:T3,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="expression" dxfId="1" priority="629">
+      <formula>COUNTIF(F32:T32,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="630">
+      <formula>AND(COUNTIF(F32:T32,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="expression" dxfId="1" priority="659">
+      <formula>COUNTIF(F33:T33,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="660">
+      <formula>AND(COUNTIF(F33:T33,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="expression" dxfId="1" priority="689">
+      <formula>COUNTIF(F34:T34,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="690">
+      <formula>AND(COUNTIF(F34:T34,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="expression" dxfId="1" priority="719">
+      <formula>COUNTIF(F35:T35,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="720">
+      <formula>AND(COUNTIF(F35:T35,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D35)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="expression" dxfId="1" priority="749">
+      <formula>COUNTIF(F38:T38,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="750">
+      <formula>AND(COUNTIF(F38:T38,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="expression" dxfId="1" priority="779">
+      <formula>COUNTIF(F39:T39,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="780">
+      <formula>AND(COUNTIF(F39:T39,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="1" priority="89">
+      <formula>COUNTIF(F4:T4,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="90">
+      <formula>AND(COUNTIF(F4:T4,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="expression" dxfId="1" priority="809">
+      <formula>COUNTIF(F40:T40,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="810">
+      <formula>AND(COUNTIF(F40:T40,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D40)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41">
+    <cfRule type="expression" dxfId="1" priority="839">
+      <formula>COUNTIF(F41:T41,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="840">
+      <formula>AND(COUNTIF(F41:T41,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="expression" dxfId="1" priority="869">
+      <formula>COUNTIF(F44:T44,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="870">
+      <formula>AND(COUNTIF(F44:T44,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D44)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="1" priority="899">
+      <formula>COUNTIF(F45:T45,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="900">
+      <formula>AND(COUNTIF(F45:T45,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46">
+    <cfRule type="expression" dxfId="1" priority="929">
+      <formula>COUNTIF(F46:T46,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="930">
+      <formula>AND(COUNTIF(F46:T46,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="expression" dxfId="1" priority="959">
+      <formula>COUNTIF(F47:T47,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="960">
+      <formula>AND(COUNTIF(F47:T47,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="1" priority="119">
+      <formula>COUNTIF(F5:T5,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="120">
+      <formula>AND(COUNTIF(F5:T5,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="expression" dxfId="1" priority="989">
+      <formula>COUNTIF(F50:T50,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="990">
+      <formula>AND(COUNTIF(F50:T50,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D50)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="expression" dxfId="1" priority="1019">
+      <formula>COUNTIF(F51:T51,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1020">
+      <formula>AND(COUNTIF(F51:T51,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="expression" dxfId="1" priority="1049">
+      <formula>COUNTIF(F52:T52,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1050">
+      <formula>AND(COUNTIF(F52:T52,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="expression" dxfId="1" priority="1079">
+      <formula>COUNTIF(F53:T53,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1080">
+      <formula>AND(COUNTIF(F53:T53,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="expression" dxfId="1" priority="1109">
+      <formula>COUNTIF(F56:T56,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1110">
+      <formula>AND(COUNTIF(F56:T56,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="expression" dxfId="1" priority="1139">
+      <formula>COUNTIF(F57:T57,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1140">
+      <formula>AND(COUNTIF(F57:T57,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D57)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D58">
+    <cfRule type="expression" dxfId="1" priority="1169">
+      <formula>COUNTIF(F58:T58,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1170">
+      <formula>AND(COUNTIF(F58:T58,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D58)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D59">
+    <cfRule type="expression" dxfId="1" priority="1199">
+      <formula>COUNTIF(F59:T59,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1200">
+      <formula>AND(COUNTIF(F59:T59,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D59)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="1" priority="149">
+      <formula>COUNTIF(F8:T8,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="150">
+      <formula>AND(COUNTIF(F8:T8,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="1" priority="179">
+      <formula>COUNTIF(F9:T9,"&lt;&gt;" &amp; "")&lt;2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="180">
+      <formula>AND(COUNTIF(F9:T9,"&lt;&gt;" &amp; "")&lt;2,NOT(ISBLANK(D9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="expression" dxfId="2" priority="169">
+    <cfRule type="expression" dxfId="2" priority="181">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="170">
+    <cfRule type="expression" dxfId="3" priority="182">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="2" priority="197">
+    <cfRule type="expression" dxfId="2" priority="211">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="198">
+    <cfRule type="expression" dxfId="3" priority="212">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="expression" dxfId="2" priority="225">
+    <cfRule type="expression" dxfId="2" priority="241">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="226">
+    <cfRule type="expression" dxfId="3" priority="242">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="expression" dxfId="2" priority="253">
+    <cfRule type="expression" dxfId="2" priority="271">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="254">
+    <cfRule type="expression" dxfId="3" priority="272">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="expression" dxfId="2" priority="281">
+    <cfRule type="expression" dxfId="2" priority="301">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="282">
+    <cfRule type="expression" dxfId="3" priority="302">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="expression" dxfId="2" priority="309">
+    <cfRule type="expression" dxfId="2" priority="331">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="310">
+    <cfRule type="expression" dxfId="3" priority="332">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9414,314 +9659,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="expression" dxfId="2" priority="337">
+    <cfRule type="expression" dxfId="2" priority="361">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="338">
+    <cfRule type="expression" dxfId="3" priority="362">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="expression" dxfId="2" priority="365">
+    <cfRule type="expression" dxfId="2" priority="391">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="366">
+    <cfRule type="expression" dxfId="3" priority="392">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
-    <cfRule type="expression" dxfId="2" priority="393">
+    <cfRule type="expression" dxfId="2" priority="421">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="394">
+    <cfRule type="expression" dxfId="3" priority="422">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" dxfId="2" priority="421">
+    <cfRule type="expression" dxfId="2" priority="451">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="422">
+    <cfRule type="expression" dxfId="3" priority="452">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="expression" dxfId="2" priority="449">
+    <cfRule type="expression" dxfId="2" priority="481">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="450">
+    <cfRule type="expression" dxfId="3" priority="482">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="expression" dxfId="2" priority="477">
+    <cfRule type="expression" dxfId="2" priority="511">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="478">
+    <cfRule type="expression" dxfId="3" priority="512">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="expression" dxfId="2" priority="505">
+    <cfRule type="expression" dxfId="2" priority="541">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="506">
+    <cfRule type="expression" dxfId="3" priority="542">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="expression" dxfId="2" priority="533">
+    <cfRule type="expression" dxfId="2" priority="571">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="534">
+    <cfRule type="expression" dxfId="3" priority="572">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="expression" dxfId="2" priority="29">
+    <cfRule type="expression" dxfId="2" priority="31">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="30">
+    <cfRule type="expression" dxfId="3" priority="32">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="expression" dxfId="2" priority="561">
+    <cfRule type="expression" dxfId="2" priority="601">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="562">
+    <cfRule type="expression" dxfId="3" priority="602">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="expression" dxfId="2" priority="589">
+    <cfRule type="expression" dxfId="2" priority="631">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="590">
+    <cfRule type="expression" dxfId="3" priority="632">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="expression" dxfId="2" priority="617">
+    <cfRule type="expression" dxfId="2" priority="661">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="618">
+    <cfRule type="expression" dxfId="3" priority="662">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="expression" dxfId="2" priority="645">
+    <cfRule type="expression" dxfId="2" priority="691">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="646">
+    <cfRule type="expression" dxfId="3" priority="692">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="expression" dxfId="2" priority="673">
+    <cfRule type="expression" dxfId="2" priority="721">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="674">
+    <cfRule type="expression" dxfId="3" priority="722">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="expression" dxfId="2" priority="701">
+    <cfRule type="expression" dxfId="2" priority="751">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="702">
+    <cfRule type="expression" dxfId="3" priority="752">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="2" priority="57">
+    <cfRule type="expression" dxfId="2" priority="61">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="58">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="expression" dxfId="2" priority="729">
+    <cfRule type="expression" dxfId="2" priority="781">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="730">
+    <cfRule type="expression" dxfId="3" priority="782">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="expression" dxfId="2" priority="757">
+    <cfRule type="expression" dxfId="2" priority="811">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="758">
+    <cfRule type="expression" dxfId="3" priority="812">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="2" priority="785">
+    <cfRule type="expression" dxfId="2" priority="841">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="786">
+    <cfRule type="expression" dxfId="3" priority="842">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="expression" dxfId="2" priority="813">
+    <cfRule type="expression" dxfId="2" priority="871">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="814">
+    <cfRule type="expression" dxfId="3" priority="872">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="2" priority="841">
+    <cfRule type="expression" dxfId="2" priority="901">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="842">
+    <cfRule type="expression" dxfId="3" priority="902">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="expression" dxfId="2" priority="869">
+    <cfRule type="expression" dxfId="2" priority="931">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="870">
+    <cfRule type="expression" dxfId="3" priority="932">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="2" priority="85">
+    <cfRule type="expression" dxfId="2" priority="91">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="86">
+    <cfRule type="expression" dxfId="3" priority="92">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="2" priority="897">
+    <cfRule type="expression" dxfId="2" priority="961">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="898">
+    <cfRule type="expression" dxfId="3" priority="962">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="expression" dxfId="2" priority="925">
+    <cfRule type="expression" dxfId="2" priority="991">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="926">
+    <cfRule type="expression" dxfId="3" priority="992">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="2" priority="953">
+    <cfRule type="expression" dxfId="2" priority="1021">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="954">
+    <cfRule type="expression" dxfId="3" priority="1022">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="expression" dxfId="2" priority="981">
+    <cfRule type="expression" dxfId="2" priority="1051">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="982">
+    <cfRule type="expression" dxfId="3" priority="1052">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
-    <cfRule type="expression" dxfId="2" priority="1009">
+    <cfRule type="expression" dxfId="2" priority="1081">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1010">
+    <cfRule type="expression" dxfId="3" priority="1082">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="expression" dxfId="2" priority="1037">
+    <cfRule type="expression" dxfId="2" priority="1111">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1038">
+    <cfRule type="expression" dxfId="3" priority="1112">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G58">
-    <cfRule type="expression" dxfId="2" priority="1065">
+    <cfRule type="expression" dxfId="2" priority="1141">
       <formula>AND('Program targeting'!$E$3&lt;&gt;"Y",NOT(ISBLANK(G58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1066">
+    <cfRule type="expression" dxfId="3" priority="1142">
       <formula>'Program targeting'!$E$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="expression" dxfId="2" priority="1093">
+    <cfRule type="expression" dxfId="2" priority="1171">
       <formula>AND('Program targeting'!$F$3&lt;&gt;"Y",NOT(ISBLANK(G59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1094">
+    <cfRule type="expression" dxfId="3" priority="1172">
       <formula>'Program targeting'!$F$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="expression" dxfId="2" priority="113">
+    <cfRule type="expression" dxfId="2" priority="121">
       <formula>AND('Program targeting'!$C$3&lt;&gt;"Y",NOT(ISBLANK(G8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="114">
+    <cfRule type="expression" dxfId="3" priority="122">
       <formula>'Program targeting'!$C$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="expression" dxfId="2" priority="141">
+    <cfRule type="expression" dxfId="2" priority="151">
       <formula>AND('Program targeting'!$D$3&lt;&gt;"Y",NOT(ISBLANK(G9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="142">
+    <cfRule type="expression" dxfId="3" priority="152">
       <formula>'Program targeting'!$D$3&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="2" priority="171">
+    <cfRule type="expression" dxfId="2" priority="183">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="172">
+    <cfRule type="expression" dxfId="3" priority="184">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="expression" dxfId="2" priority="199">
+    <cfRule type="expression" dxfId="2" priority="213">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="200">
+    <cfRule type="expression" dxfId="3" priority="214">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="expression" dxfId="2" priority="227">
+    <cfRule type="expression" dxfId="2" priority="243">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="228">
+    <cfRule type="expression" dxfId="3" priority="244">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="expression" dxfId="2" priority="255">
+    <cfRule type="expression" dxfId="2" priority="273">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="256">
+    <cfRule type="expression" dxfId="3" priority="274">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="expression" dxfId="2" priority="283">
+    <cfRule type="expression" dxfId="2" priority="303">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="284">
+    <cfRule type="expression" dxfId="3" priority="304">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="expression" dxfId="2" priority="311">
+    <cfRule type="expression" dxfId="2" priority="333">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="312">
+    <cfRule type="expression" dxfId="3" priority="334">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9734,314 +9979,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="expression" dxfId="2" priority="339">
+    <cfRule type="expression" dxfId="2" priority="363">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="340">
+    <cfRule type="expression" dxfId="3" priority="364">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="expression" dxfId="2" priority="367">
+    <cfRule type="expression" dxfId="2" priority="393">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="368">
+    <cfRule type="expression" dxfId="3" priority="394">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="expression" dxfId="2" priority="395">
+    <cfRule type="expression" dxfId="2" priority="423">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="396">
+    <cfRule type="expression" dxfId="3" priority="424">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="expression" dxfId="2" priority="423">
+    <cfRule type="expression" dxfId="2" priority="453">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="424">
+    <cfRule type="expression" dxfId="3" priority="454">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="expression" dxfId="2" priority="451">
+    <cfRule type="expression" dxfId="2" priority="483">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="452">
+    <cfRule type="expression" dxfId="3" priority="484">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="expression" dxfId="2" priority="479">
+    <cfRule type="expression" dxfId="2" priority="513">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="480">
+    <cfRule type="expression" dxfId="3" priority="514">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="expression" dxfId="2" priority="507">
+    <cfRule type="expression" dxfId="2" priority="543">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="508">
+    <cfRule type="expression" dxfId="3" priority="544">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="expression" dxfId="2" priority="535">
+    <cfRule type="expression" dxfId="2" priority="573">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="536">
+    <cfRule type="expression" dxfId="3" priority="574">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="32">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="expression" dxfId="2" priority="563">
+    <cfRule type="expression" dxfId="2" priority="603">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="564">
+    <cfRule type="expression" dxfId="3" priority="604">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="expression" dxfId="2" priority="591">
+    <cfRule type="expression" dxfId="2" priority="633">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="592">
+    <cfRule type="expression" dxfId="3" priority="634">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="expression" dxfId="2" priority="619">
+    <cfRule type="expression" dxfId="2" priority="663">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="620">
+    <cfRule type="expression" dxfId="3" priority="664">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="expression" dxfId="2" priority="647">
+    <cfRule type="expression" dxfId="2" priority="693">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="648">
+    <cfRule type="expression" dxfId="3" priority="694">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="expression" dxfId="2" priority="675">
+    <cfRule type="expression" dxfId="2" priority="723">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="676">
+    <cfRule type="expression" dxfId="3" priority="724">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="expression" dxfId="2" priority="703">
+    <cfRule type="expression" dxfId="2" priority="753">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="704">
+    <cfRule type="expression" dxfId="3" priority="754">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="2" priority="63">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="60">
+    <cfRule type="expression" dxfId="3" priority="64">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="expression" dxfId="2" priority="731">
+    <cfRule type="expression" dxfId="2" priority="783">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="732">
+    <cfRule type="expression" dxfId="3" priority="784">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="expression" dxfId="2" priority="759">
+    <cfRule type="expression" dxfId="2" priority="813">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="760">
+    <cfRule type="expression" dxfId="3" priority="814">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="2" priority="787">
+    <cfRule type="expression" dxfId="2" priority="843">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="788">
+    <cfRule type="expression" dxfId="3" priority="844">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="expression" dxfId="2" priority="815">
+    <cfRule type="expression" dxfId="2" priority="873">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="816">
+    <cfRule type="expression" dxfId="3" priority="874">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="2" priority="843">
+    <cfRule type="expression" dxfId="2" priority="903">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="844">
+    <cfRule type="expression" dxfId="3" priority="904">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="expression" dxfId="2" priority="871">
+    <cfRule type="expression" dxfId="2" priority="933">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="872">
+    <cfRule type="expression" dxfId="3" priority="934">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="expression" dxfId="2" priority="87">
+    <cfRule type="expression" dxfId="2" priority="93">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="88">
+    <cfRule type="expression" dxfId="3" priority="94">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="2" priority="899">
+    <cfRule type="expression" dxfId="2" priority="963">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="900">
+    <cfRule type="expression" dxfId="3" priority="964">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="expression" dxfId="2" priority="927">
+    <cfRule type="expression" dxfId="2" priority="993">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="928">
+    <cfRule type="expression" dxfId="3" priority="994">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="2" priority="955">
+    <cfRule type="expression" dxfId="2" priority="1023">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="956">
+    <cfRule type="expression" dxfId="3" priority="1024">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="2" priority="983">
+    <cfRule type="expression" dxfId="2" priority="1053">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="984">
+    <cfRule type="expression" dxfId="3" priority="1054">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="expression" dxfId="2" priority="1011">
+    <cfRule type="expression" dxfId="2" priority="1083">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1012">
+    <cfRule type="expression" dxfId="3" priority="1084">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="expression" dxfId="2" priority="1039">
+    <cfRule type="expression" dxfId="2" priority="1113">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1040">
+    <cfRule type="expression" dxfId="3" priority="1114">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="expression" dxfId="2" priority="1067">
+    <cfRule type="expression" dxfId="2" priority="1143">
       <formula>AND('Program targeting'!$E$4&lt;&gt;"Y",NOT(ISBLANK(H58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1068">
+    <cfRule type="expression" dxfId="3" priority="1144">
       <formula>'Program targeting'!$E$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="expression" dxfId="2" priority="1095">
+    <cfRule type="expression" dxfId="2" priority="1173">
       <formula>AND('Program targeting'!$F$4&lt;&gt;"Y",NOT(ISBLANK(H59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1096">
+    <cfRule type="expression" dxfId="3" priority="1174">
       <formula>'Program targeting'!$F$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="2" priority="115">
+    <cfRule type="expression" dxfId="2" priority="123">
       <formula>AND('Program targeting'!$C$4&lt;&gt;"Y",NOT(ISBLANK(H8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="116">
+    <cfRule type="expression" dxfId="3" priority="124">
       <formula>'Program targeting'!$C$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="expression" dxfId="2" priority="143">
+    <cfRule type="expression" dxfId="2" priority="153">
       <formula>AND('Program targeting'!$D$4&lt;&gt;"Y",NOT(ISBLANK(H9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="144">
+    <cfRule type="expression" dxfId="3" priority="154">
       <formula>'Program targeting'!$D$4&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="expression" dxfId="2" priority="173">
+    <cfRule type="expression" dxfId="2" priority="185">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="174">
+    <cfRule type="expression" dxfId="3" priority="186">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="2" priority="201">
+    <cfRule type="expression" dxfId="2" priority="215">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="202">
+    <cfRule type="expression" dxfId="3" priority="216">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="2" priority="229">
+    <cfRule type="expression" dxfId="2" priority="245">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="230">
+    <cfRule type="expression" dxfId="3" priority="246">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="2" priority="257">
+    <cfRule type="expression" dxfId="2" priority="275">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="258">
+    <cfRule type="expression" dxfId="3" priority="276">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="2" priority="285">
+    <cfRule type="expression" dxfId="2" priority="305">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="286">
+    <cfRule type="expression" dxfId="3" priority="306">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="2" priority="313">
+    <cfRule type="expression" dxfId="2" priority="335">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="314">
+    <cfRule type="expression" dxfId="3" priority="336">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10054,314 +10299,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I20">
-    <cfRule type="expression" dxfId="2" priority="341">
+    <cfRule type="expression" dxfId="2" priority="365">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="342">
+    <cfRule type="expression" dxfId="3" priority="366">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21">
-    <cfRule type="expression" dxfId="2" priority="369">
+    <cfRule type="expression" dxfId="2" priority="395">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="370">
+    <cfRule type="expression" dxfId="3" priority="396">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="expression" dxfId="2" priority="397">
+    <cfRule type="expression" dxfId="2" priority="425">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="398">
+    <cfRule type="expression" dxfId="3" priority="426">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="expression" dxfId="2" priority="425">
+    <cfRule type="expression" dxfId="2" priority="455">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="426">
+    <cfRule type="expression" dxfId="3" priority="456">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="expression" dxfId="2" priority="453">
+    <cfRule type="expression" dxfId="2" priority="485">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="454">
+    <cfRule type="expression" dxfId="3" priority="486">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="expression" dxfId="2" priority="481">
+    <cfRule type="expression" dxfId="2" priority="515">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="482">
+    <cfRule type="expression" dxfId="3" priority="516">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="expression" dxfId="2" priority="509">
+    <cfRule type="expression" dxfId="2" priority="545">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="510">
+    <cfRule type="expression" dxfId="3" priority="546">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="expression" dxfId="2" priority="537">
+    <cfRule type="expression" dxfId="2" priority="575">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="538">
+    <cfRule type="expression" dxfId="3" priority="576">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="expression" dxfId="2" priority="33">
+    <cfRule type="expression" dxfId="2" priority="35">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="34">
+    <cfRule type="expression" dxfId="3" priority="36">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32">
-    <cfRule type="expression" dxfId="2" priority="565">
+    <cfRule type="expression" dxfId="2" priority="605">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="566">
+    <cfRule type="expression" dxfId="3" priority="606">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="expression" dxfId="2" priority="593">
+    <cfRule type="expression" dxfId="2" priority="635">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="594">
+    <cfRule type="expression" dxfId="3" priority="636">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="expression" dxfId="2" priority="621">
+    <cfRule type="expression" dxfId="2" priority="665">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="622">
+    <cfRule type="expression" dxfId="3" priority="666">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="expression" dxfId="2" priority="649">
+    <cfRule type="expression" dxfId="2" priority="695">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="650">
+    <cfRule type="expression" dxfId="3" priority="696">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="expression" dxfId="2" priority="677">
+    <cfRule type="expression" dxfId="2" priority="725">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="678">
+    <cfRule type="expression" dxfId="3" priority="726">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="expression" dxfId="2" priority="705">
+    <cfRule type="expression" dxfId="2" priority="755">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="706">
+    <cfRule type="expression" dxfId="3" priority="756">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="expression" dxfId="2" priority="61">
+    <cfRule type="expression" dxfId="2" priority="65">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="62">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="expression" dxfId="2" priority="733">
+    <cfRule type="expression" dxfId="2" priority="785">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="734">
+    <cfRule type="expression" dxfId="3" priority="786">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="expression" dxfId="2" priority="761">
+    <cfRule type="expression" dxfId="2" priority="815">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="762">
+    <cfRule type="expression" dxfId="3" priority="816">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="expression" dxfId="2" priority="789">
+    <cfRule type="expression" dxfId="2" priority="845">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="790">
+    <cfRule type="expression" dxfId="3" priority="846">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="expression" dxfId="2" priority="817">
+    <cfRule type="expression" dxfId="2" priority="875">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="818">
+    <cfRule type="expression" dxfId="3" priority="876">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="expression" dxfId="2" priority="845">
+    <cfRule type="expression" dxfId="2" priority="905">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="846">
+    <cfRule type="expression" dxfId="3" priority="906">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="expression" dxfId="2" priority="873">
+    <cfRule type="expression" dxfId="2" priority="935">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="874">
+    <cfRule type="expression" dxfId="3" priority="936">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="2" priority="89">
+    <cfRule type="expression" dxfId="2" priority="95">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="90">
+    <cfRule type="expression" dxfId="3" priority="96">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="expression" dxfId="2" priority="901">
+    <cfRule type="expression" dxfId="2" priority="965">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="902">
+    <cfRule type="expression" dxfId="3" priority="966">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="expression" dxfId="2" priority="929">
+    <cfRule type="expression" dxfId="2" priority="995">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="930">
+    <cfRule type="expression" dxfId="3" priority="996">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="expression" dxfId="2" priority="957">
+    <cfRule type="expression" dxfId="2" priority="1025">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="958">
+    <cfRule type="expression" dxfId="3" priority="1026">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="2" priority="985">
+    <cfRule type="expression" dxfId="2" priority="1055">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="986">
+    <cfRule type="expression" dxfId="3" priority="1056">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="expression" dxfId="2" priority="1013">
+    <cfRule type="expression" dxfId="2" priority="1085">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1014">
+    <cfRule type="expression" dxfId="3" priority="1086">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="expression" dxfId="2" priority="1041">
+    <cfRule type="expression" dxfId="2" priority="1115">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1042">
+    <cfRule type="expression" dxfId="3" priority="1116">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="expression" dxfId="2" priority="1069">
+    <cfRule type="expression" dxfId="2" priority="1145">
       <formula>AND('Program targeting'!$E$5&lt;&gt;"Y",NOT(ISBLANK(I58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1070">
+    <cfRule type="expression" dxfId="3" priority="1146">
       <formula>'Program targeting'!$E$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="expression" dxfId="2" priority="1097">
+    <cfRule type="expression" dxfId="2" priority="1175">
       <formula>AND('Program targeting'!$F$5&lt;&gt;"Y",NOT(ISBLANK(I59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1098">
+    <cfRule type="expression" dxfId="3" priority="1176">
       <formula>'Program targeting'!$F$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="expression" dxfId="2" priority="117">
+    <cfRule type="expression" dxfId="2" priority="125">
       <formula>AND('Program targeting'!$C$5&lt;&gt;"Y",NOT(ISBLANK(I8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="118">
+    <cfRule type="expression" dxfId="3" priority="126">
       <formula>'Program targeting'!$C$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="expression" dxfId="2" priority="145">
+    <cfRule type="expression" dxfId="2" priority="155">
       <formula>AND('Program targeting'!$D$5&lt;&gt;"Y",NOT(ISBLANK(I9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="146">
+    <cfRule type="expression" dxfId="3" priority="156">
       <formula>'Program targeting'!$D$5&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="expression" dxfId="2" priority="175">
+    <cfRule type="expression" dxfId="2" priority="187">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="176">
+    <cfRule type="expression" dxfId="3" priority="188">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="expression" dxfId="2" priority="203">
+    <cfRule type="expression" dxfId="2" priority="217">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="204">
+    <cfRule type="expression" dxfId="3" priority="218">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="expression" dxfId="2" priority="231">
+    <cfRule type="expression" dxfId="2" priority="247">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="232">
+    <cfRule type="expression" dxfId="3" priority="248">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="expression" dxfId="2" priority="259">
+    <cfRule type="expression" dxfId="2" priority="277">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="260">
+    <cfRule type="expression" dxfId="3" priority="278">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="expression" dxfId="2" priority="287">
+    <cfRule type="expression" dxfId="2" priority="307">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="288">
+    <cfRule type="expression" dxfId="3" priority="308">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="expression" dxfId="2" priority="315">
+    <cfRule type="expression" dxfId="2" priority="337">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="316">
+    <cfRule type="expression" dxfId="3" priority="338">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10374,314 +10619,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="expression" dxfId="2" priority="343">
+    <cfRule type="expression" dxfId="2" priority="367">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="344">
+    <cfRule type="expression" dxfId="3" priority="368">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="expression" dxfId="2" priority="371">
+    <cfRule type="expression" dxfId="2" priority="397">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="372">
+    <cfRule type="expression" dxfId="3" priority="398">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="expression" dxfId="2" priority="399">
+    <cfRule type="expression" dxfId="2" priority="427">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="400">
+    <cfRule type="expression" dxfId="3" priority="428">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J23">
-    <cfRule type="expression" dxfId="2" priority="427">
+    <cfRule type="expression" dxfId="2" priority="457">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="428">
+    <cfRule type="expression" dxfId="3" priority="458">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="expression" dxfId="2" priority="455">
+    <cfRule type="expression" dxfId="2" priority="487">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="456">
+    <cfRule type="expression" dxfId="3" priority="488">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="expression" dxfId="2" priority="483">
+    <cfRule type="expression" dxfId="2" priority="517">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="484">
+    <cfRule type="expression" dxfId="3" priority="518">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28">
-    <cfRule type="expression" dxfId="2" priority="511">
+    <cfRule type="expression" dxfId="2" priority="547">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="512">
+    <cfRule type="expression" dxfId="3" priority="548">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J29">
-    <cfRule type="expression" dxfId="2" priority="539">
+    <cfRule type="expression" dxfId="2" priority="577">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="540">
+    <cfRule type="expression" dxfId="3" priority="578">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="36">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="expression" dxfId="2" priority="567">
+    <cfRule type="expression" dxfId="2" priority="607">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="568">
+    <cfRule type="expression" dxfId="3" priority="608">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="expression" dxfId="2" priority="595">
+    <cfRule type="expression" dxfId="2" priority="637">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="596">
+    <cfRule type="expression" dxfId="3" priority="638">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="expression" dxfId="2" priority="623">
+    <cfRule type="expression" dxfId="2" priority="667">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="624">
+    <cfRule type="expression" dxfId="3" priority="668">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="expression" dxfId="2" priority="651">
+    <cfRule type="expression" dxfId="2" priority="697">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="652">
+    <cfRule type="expression" dxfId="3" priority="698">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="expression" dxfId="2" priority="679">
+    <cfRule type="expression" dxfId="2" priority="727">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="680">
+    <cfRule type="expression" dxfId="3" priority="728">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J39">
-    <cfRule type="expression" dxfId="2" priority="707">
+    <cfRule type="expression" dxfId="2" priority="757">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="708">
+    <cfRule type="expression" dxfId="3" priority="758">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="2" priority="67">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="64">
+    <cfRule type="expression" dxfId="3" priority="68">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40">
-    <cfRule type="expression" dxfId="2" priority="735">
+    <cfRule type="expression" dxfId="2" priority="787">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="736">
+    <cfRule type="expression" dxfId="3" priority="788">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="expression" dxfId="2" priority="763">
+    <cfRule type="expression" dxfId="2" priority="817">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="764">
+    <cfRule type="expression" dxfId="3" priority="818">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="expression" dxfId="2" priority="791">
+    <cfRule type="expression" dxfId="2" priority="847">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="792">
+    <cfRule type="expression" dxfId="3" priority="848">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45">
-    <cfRule type="expression" dxfId="2" priority="819">
+    <cfRule type="expression" dxfId="2" priority="877">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="820">
+    <cfRule type="expression" dxfId="3" priority="878">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="expression" dxfId="2" priority="847">
+    <cfRule type="expression" dxfId="2" priority="907">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="848">
+    <cfRule type="expression" dxfId="3" priority="908">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="expression" dxfId="2" priority="875">
+    <cfRule type="expression" dxfId="2" priority="937">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="876">
+    <cfRule type="expression" dxfId="3" priority="938">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="2" priority="91">
+    <cfRule type="expression" dxfId="2" priority="97">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="92">
+    <cfRule type="expression" dxfId="3" priority="98">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
-    <cfRule type="expression" dxfId="2" priority="903">
+    <cfRule type="expression" dxfId="2" priority="967">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="904">
+    <cfRule type="expression" dxfId="3" priority="968">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="expression" dxfId="2" priority="931">
+    <cfRule type="expression" dxfId="2" priority="997">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="932">
+    <cfRule type="expression" dxfId="3" priority="998">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="expression" dxfId="2" priority="959">
+    <cfRule type="expression" dxfId="2" priority="1027">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="960">
+    <cfRule type="expression" dxfId="3" priority="1028">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53">
-    <cfRule type="expression" dxfId="2" priority="987">
+    <cfRule type="expression" dxfId="2" priority="1057">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="988">
+    <cfRule type="expression" dxfId="3" priority="1058">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J56">
-    <cfRule type="expression" dxfId="2" priority="1015">
+    <cfRule type="expression" dxfId="2" priority="1087">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1016">
+    <cfRule type="expression" dxfId="3" priority="1088">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="expression" dxfId="2" priority="1043">
+    <cfRule type="expression" dxfId="2" priority="1117">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1044">
+    <cfRule type="expression" dxfId="3" priority="1118">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58">
-    <cfRule type="expression" dxfId="2" priority="1071">
+    <cfRule type="expression" dxfId="2" priority="1147">
       <formula>AND('Program targeting'!$E$6&lt;&gt;"Y",NOT(ISBLANK(J58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1072">
+    <cfRule type="expression" dxfId="3" priority="1148">
       <formula>'Program targeting'!$E$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J59">
-    <cfRule type="expression" dxfId="2" priority="1099">
+    <cfRule type="expression" dxfId="2" priority="1177">
       <formula>AND('Program targeting'!$F$6&lt;&gt;"Y",NOT(ISBLANK(J59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1100">
+    <cfRule type="expression" dxfId="3" priority="1178">
       <formula>'Program targeting'!$F$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="expression" dxfId="2" priority="119">
+    <cfRule type="expression" dxfId="2" priority="127">
       <formula>AND('Program targeting'!$C$6&lt;&gt;"Y",NOT(ISBLANK(J8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120">
+    <cfRule type="expression" dxfId="3" priority="128">
       <formula>'Program targeting'!$C$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9">
-    <cfRule type="expression" dxfId="2" priority="147">
+    <cfRule type="expression" dxfId="2" priority="157">
       <formula>AND('Program targeting'!$D$6&lt;&gt;"Y",NOT(ISBLANK(J9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="148">
+    <cfRule type="expression" dxfId="3" priority="158">
       <formula>'Program targeting'!$D$6&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10">
-    <cfRule type="expression" dxfId="2" priority="177">
+    <cfRule type="expression" dxfId="2" priority="189">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="178">
+    <cfRule type="expression" dxfId="3" priority="190">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="expression" dxfId="2" priority="205">
+    <cfRule type="expression" dxfId="2" priority="219">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="206">
+    <cfRule type="expression" dxfId="3" priority="220">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="expression" dxfId="2" priority="233">
+    <cfRule type="expression" dxfId="2" priority="249">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="234">
+    <cfRule type="expression" dxfId="3" priority="250">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="expression" dxfId="2" priority="261">
+    <cfRule type="expression" dxfId="2" priority="279">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="262">
+    <cfRule type="expression" dxfId="3" priority="280">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16">
-    <cfRule type="expression" dxfId="2" priority="289">
+    <cfRule type="expression" dxfId="2" priority="309">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="290">
+    <cfRule type="expression" dxfId="3" priority="310">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17">
-    <cfRule type="expression" dxfId="2" priority="317">
+    <cfRule type="expression" dxfId="2" priority="339">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="318">
+    <cfRule type="expression" dxfId="3" priority="340">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10694,314 +10939,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K20">
-    <cfRule type="expression" dxfId="2" priority="345">
+    <cfRule type="expression" dxfId="2" priority="369">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="346">
+    <cfRule type="expression" dxfId="3" priority="370">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21">
-    <cfRule type="expression" dxfId="2" priority="373">
+    <cfRule type="expression" dxfId="2" priority="399">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="374">
+    <cfRule type="expression" dxfId="3" priority="400">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22">
-    <cfRule type="expression" dxfId="2" priority="401">
+    <cfRule type="expression" dxfId="2" priority="429">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="402">
+    <cfRule type="expression" dxfId="3" priority="430">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="2" priority="429">
+    <cfRule type="expression" dxfId="2" priority="459">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="430">
+    <cfRule type="expression" dxfId="3" priority="460">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K26">
-    <cfRule type="expression" dxfId="2" priority="457">
+    <cfRule type="expression" dxfId="2" priority="489">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="458">
+    <cfRule type="expression" dxfId="3" priority="490">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27">
-    <cfRule type="expression" dxfId="2" priority="485">
+    <cfRule type="expression" dxfId="2" priority="519">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="486">
+    <cfRule type="expression" dxfId="3" priority="520">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28">
-    <cfRule type="expression" dxfId="2" priority="513">
+    <cfRule type="expression" dxfId="2" priority="549">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="514">
+    <cfRule type="expression" dxfId="3" priority="550">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29">
-    <cfRule type="expression" dxfId="2" priority="541">
+    <cfRule type="expression" dxfId="2" priority="579">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="542">
+    <cfRule type="expression" dxfId="3" priority="580">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3">
-    <cfRule type="expression" dxfId="2" priority="37">
+    <cfRule type="expression" dxfId="2" priority="39">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="38">
+    <cfRule type="expression" dxfId="3" priority="40">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32">
-    <cfRule type="expression" dxfId="2" priority="569">
+    <cfRule type="expression" dxfId="2" priority="609">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="570">
+    <cfRule type="expression" dxfId="3" priority="610">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33">
-    <cfRule type="expression" dxfId="2" priority="597">
+    <cfRule type="expression" dxfId="2" priority="639">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="598">
+    <cfRule type="expression" dxfId="3" priority="640">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34">
-    <cfRule type="expression" dxfId="2" priority="625">
+    <cfRule type="expression" dxfId="2" priority="669">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="626">
+    <cfRule type="expression" dxfId="3" priority="670">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="expression" dxfId="2" priority="653">
+    <cfRule type="expression" dxfId="2" priority="699">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="654">
+    <cfRule type="expression" dxfId="3" priority="700">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38">
-    <cfRule type="expression" dxfId="2" priority="681">
+    <cfRule type="expression" dxfId="2" priority="729">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="682">
+    <cfRule type="expression" dxfId="3" priority="730">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K39">
-    <cfRule type="expression" dxfId="2" priority="709">
+    <cfRule type="expression" dxfId="2" priority="759">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="710">
+    <cfRule type="expression" dxfId="3" priority="760">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="expression" dxfId="2" priority="65">
+    <cfRule type="expression" dxfId="2" priority="69">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="66">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="2" priority="737">
+    <cfRule type="expression" dxfId="2" priority="789">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="738">
+    <cfRule type="expression" dxfId="3" priority="790">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41">
-    <cfRule type="expression" dxfId="2" priority="765">
+    <cfRule type="expression" dxfId="2" priority="819">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="766">
+    <cfRule type="expression" dxfId="3" priority="820">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K44">
-    <cfRule type="expression" dxfId="2" priority="793">
+    <cfRule type="expression" dxfId="2" priority="849">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="794">
+    <cfRule type="expression" dxfId="3" priority="850">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="expression" dxfId="2" priority="821">
+    <cfRule type="expression" dxfId="2" priority="879">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="822">
+    <cfRule type="expression" dxfId="3" priority="880">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46">
-    <cfRule type="expression" dxfId="2" priority="849">
+    <cfRule type="expression" dxfId="2" priority="909">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="850">
+    <cfRule type="expression" dxfId="3" priority="910">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K47">
-    <cfRule type="expression" dxfId="2" priority="877">
+    <cfRule type="expression" dxfId="2" priority="939">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="878">
+    <cfRule type="expression" dxfId="3" priority="940">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="2" priority="93">
+    <cfRule type="expression" dxfId="2" priority="99">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="94">
+    <cfRule type="expression" dxfId="3" priority="100">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K50">
-    <cfRule type="expression" dxfId="2" priority="905">
+    <cfRule type="expression" dxfId="2" priority="969">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="906">
+    <cfRule type="expression" dxfId="3" priority="970">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51">
-    <cfRule type="expression" dxfId="2" priority="933">
+    <cfRule type="expression" dxfId="2" priority="999">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="934">
+    <cfRule type="expression" dxfId="3" priority="1000">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="2" priority="961">
+    <cfRule type="expression" dxfId="2" priority="1029">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="962">
+    <cfRule type="expression" dxfId="3" priority="1030">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53">
-    <cfRule type="expression" dxfId="2" priority="989">
+    <cfRule type="expression" dxfId="2" priority="1059">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="990">
+    <cfRule type="expression" dxfId="3" priority="1060">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K56">
-    <cfRule type="expression" dxfId="2" priority="1017">
+    <cfRule type="expression" dxfId="2" priority="1089">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1018">
+    <cfRule type="expression" dxfId="3" priority="1090">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K57">
-    <cfRule type="expression" dxfId="2" priority="1045">
+    <cfRule type="expression" dxfId="2" priority="1119">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1046">
+    <cfRule type="expression" dxfId="3" priority="1120">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K58">
-    <cfRule type="expression" dxfId="2" priority="1073">
+    <cfRule type="expression" dxfId="2" priority="1149">
       <formula>AND('Program targeting'!$E$7&lt;&gt;"Y",NOT(ISBLANK(K58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1074">
+    <cfRule type="expression" dxfId="3" priority="1150">
       <formula>'Program targeting'!$E$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K59">
-    <cfRule type="expression" dxfId="2" priority="1101">
+    <cfRule type="expression" dxfId="2" priority="1179">
       <formula>AND('Program targeting'!$F$7&lt;&gt;"Y",NOT(ISBLANK(K59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1102">
+    <cfRule type="expression" dxfId="3" priority="1180">
       <formula>'Program targeting'!$F$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="expression" dxfId="2" priority="121">
+    <cfRule type="expression" dxfId="2" priority="129">
       <formula>AND('Program targeting'!$C$7&lt;&gt;"Y",NOT(ISBLANK(K8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="122">
+    <cfRule type="expression" dxfId="3" priority="130">
       <formula>'Program targeting'!$C$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K9">
-    <cfRule type="expression" dxfId="2" priority="149">
+    <cfRule type="expression" dxfId="2" priority="159">
       <formula>AND('Program targeting'!$D$7&lt;&gt;"Y",NOT(ISBLANK(K9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="150">
+    <cfRule type="expression" dxfId="3" priority="160">
       <formula>'Program targeting'!$D$7&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="2" priority="179">
+    <cfRule type="expression" dxfId="2" priority="191">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="180">
+    <cfRule type="expression" dxfId="3" priority="192">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="2" priority="207">
+    <cfRule type="expression" dxfId="2" priority="221">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="208">
+    <cfRule type="expression" dxfId="3" priority="222">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14">
-    <cfRule type="expression" dxfId="2" priority="235">
+    <cfRule type="expression" dxfId="2" priority="251">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="236">
+    <cfRule type="expression" dxfId="3" priority="252">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="expression" dxfId="2" priority="263">
+    <cfRule type="expression" dxfId="2" priority="281">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="264">
+    <cfRule type="expression" dxfId="3" priority="282">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="expression" dxfId="2" priority="291">
+    <cfRule type="expression" dxfId="2" priority="311">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="292">
+    <cfRule type="expression" dxfId="3" priority="312">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="expression" dxfId="2" priority="319">
+    <cfRule type="expression" dxfId="2" priority="341">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="320">
+    <cfRule type="expression" dxfId="3" priority="342">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11014,314 +11259,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="expression" dxfId="2" priority="347">
+    <cfRule type="expression" dxfId="2" priority="371">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="348">
+    <cfRule type="expression" dxfId="3" priority="372">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="expression" dxfId="2" priority="375">
+    <cfRule type="expression" dxfId="2" priority="401">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="376">
+    <cfRule type="expression" dxfId="3" priority="402">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="expression" dxfId="2" priority="403">
+    <cfRule type="expression" dxfId="2" priority="431">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="404">
+    <cfRule type="expression" dxfId="3" priority="432">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23">
-    <cfRule type="expression" dxfId="2" priority="431">
+    <cfRule type="expression" dxfId="2" priority="461">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="432">
+    <cfRule type="expression" dxfId="3" priority="462">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26">
-    <cfRule type="expression" dxfId="2" priority="459">
+    <cfRule type="expression" dxfId="2" priority="491">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="460">
+    <cfRule type="expression" dxfId="3" priority="492">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27">
-    <cfRule type="expression" dxfId="2" priority="487">
+    <cfRule type="expression" dxfId="2" priority="521">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="488">
+    <cfRule type="expression" dxfId="3" priority="522">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28">
-    <cfRule type="expression" dxfId="2" priority="515">
+    <cfRule type="expression" dxfId="2" priority="551">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="516">
+    <cfRule type="expression" dxfId="3" priority="552">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="expression" dxfId="2" priority="543">
+    <cfRule type="expression" dxfId="2" priority="581">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="544">
+    <cfRule type="expression" dxfId="3" priority="582">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="2" priority="41">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="40">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="expression" dxfId="2" priority="571">
+    <cfRule type="expression" dxfId="2" priority="611">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="572">
+    <cfRule type="expression" dxfId="3" priority="612">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="expression" dxfId="2" priority="599">
+    <cfRule type="expression" dxfId="2" priority="641">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="600">
+    <cfRule type="expression" dxfId="3" priority="642">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34">
-    <cfRule type="expression" dxfId="2" priority="627">
+    <cfRule type="expression" dxfId="2" priority="671">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="628">
+    <cfRule type="expression" dxfId="3" priority="672">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="expression" dxfId="2" priority="655">
+    <cfRule type="expression" dxfId="2" priority="701">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="656">
+    <cfRule type="expression" dxfId="3" priority="702">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L38">
-    <cfRule type="expression" dxfId="2" priority="683">
+    <cfRule type="expression" dxfId="2" priority="731">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="684">
+    <cfRule type="expression" dxfId="3" priority="732">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L39">
-    <cfRule type="expression" dxfId="2" priority="711">
+    <cfRule type="expression" dxfId="2" priority="761">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="712">
+    <cfRule type="expression" dxfId="3" priority="762">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="2" priority="71">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="68">
+    <cfRule type="expression" dxfId="3" priority="72">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40">
-    <cfRule type="expression" dxfId="2" priority="739">
+    <cfRule type="expression" dxfId="2" priority="791">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="740">
+    <cfRule type="expression" dxfId="3" priority="792">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L41">
-    <cfRule type="expression" dxfId="2" priority="767">
+    <cfRule type="expression" dxfId="2" priority="821">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="768">
+    <cfRule type="expression" dxfId="3" priority="822">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L44">
-    <cfRule type="expression" dxfId="2" priority="795">
+    <cfRule type="expression" dxfId="2" priority="851">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="796">
+    <cfRule type="expression" dxfId="3" priority="852">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L45">
-    <cfRule type="expression" dxfId="2" priority="823">
+    <cfRule type="expression" dxfId="2" priority="881">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="824">
+    <cfRule type="expression" dxfId="3" priority="882">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46">
-    <cfRule type="expression" dxfId="2" priority="851">
+    <cfRule type="expression" dxfId="2" priority="911">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="852">
+    <cfRule type="expression" dxfId="3" priority="912">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L47">
-    <cfRule type="expression" dxfId="2" priority="879">
+    <cfRule type="expression" dxfId="2" priority="941">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="880">
+    <cfRule type="expression" dxfId="3" priority="942">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="expression" dxfId="2" priority="95">
+    <cfRule type="expression" dxfId="2" priority="101">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="96">
+    <cfRule type="expression" dxfId="3" priority="102">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L50">
-    <cfRule type="expression" dxfId="2" priority="907">
+    <cfRule type="expression" dxfId="2" priority="971">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="908">
+    <cfRule type="expression" dxfId="3" priority="972">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51">
-    <cfRule type="expression" dxfId="2" priority="935">
+    <cfRule type="expression" dxfId="2" priority="1001">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="936">
+    <cfRule type="expression" dxfId="3" priority="1002">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52">
-    <cfRule type="expression" dxfId="2" priority="963">
+    <cfRule type="expression" dxfId="2" priority="1031">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="964">
+    <cfRule type="expression" dxfId="3" priority="1032">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L53">
-    <cfRule type="expression" dxfId="2" priority="991">
+    <cfRule type="expression" dxfId="2" priority="1061">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="992">
+    <cfRule type="expression" dxfId="3" priority="1062">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L56">
-    <cfRule type="expression" dxfId="2" priority="1019">
+    <cfRule type="expression" dxfId="2" priority="1091">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1020">
+    <cfRule type="expression" dxfId="3" priority="1092">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L57">
-    <cfRule type="expression" dxfId="2" priority="1047">
+    <cfRule type="expression" dxfId="2" priority="1121">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1048">
+    <cfRule type="expression" dxfId="3" priority="1122">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L58">
-    <cfRule type="expression" dxfId="2" priority="1075">
+    <cfRule type="expression" dxfId="2" priority="1151">
       <formula>AND('Program targeting'!$E$8&lt;&gt;"Y",NOT(ISBLANK(L58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1076">
+    <cfRule type="expression" dxfId="3" priority="1152">
       <formula>'Program targeting'!$E$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="expression" dxfId="2" priority="1103">
+    <cfRule type="expression" dxfId="2" priority="1181">
       <formula>AND('Program targeting'!$F$8&lt;&gt;"Y",NOT(ISBLANK(L59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1104">
+    <cfRule type="expression" dxfId="3" priority="1182">
       <formula>'Program targeting'!$F$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="expression" dxfId="2" priority="123">
+    <cfRule type="expression" dxfId="2" priority="131">
       <formula>AND('Program targeting'!$C$8&lt;&gt;"Y",NOT(ISBLANK(L8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="124">
+    <cfRule type="expression" dxfId="3" priority="132">
       <formula>'Program targeting'!$C$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="2" priority="151">
+    <cfRule type="expression" dxfId="2" priority="161">
       <formula>AND('Program targeting'!$D$8&lt;&gt;"Y",NOT(ISBLANK(L9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="152">
+    <cfRule type="expression" dxfId="3" priority="162">
       <formula>'Program targeting'!$D$8&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="2" priority="181">
+    <cfRule type="expression" dxfId="2" priority="193">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="182">
+    <cfRule type="expression" dxfId="3" priority="194">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="2" priority="209">
+    <cfRule type="expression" dxfId="2" priority="223">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="210">
+    <cfRule type="expression" dxfId="3" priority="224">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="expression" dxfId="2" priority="237">
+    <cfRule type="expression" dxfId="2" priority="253">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="238">
+    <cfRule type="expression" dxfId="3" priority="254">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M15">
-    <cfRule type="expression" dxfId="2" priority="265">
+    <cfRule type="expression" dxfId="2" priority="283">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="266">
+    <cfRule type="expression" dxfId="3" priority="284">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="expression" dxfId="2" priority="293">
+    <cfRule type="expression" dxfId="2" priority="313">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="294">
+    <cfRule type="expression" dxfId="3" priority="314">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M17">
-    <cfRule type="expression" dxfId="2" priority="321">
+    <cfRule type="expression" dxfId="2" priority="343">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="322">
+    <cfRule type="expression" dxfId="3" priority="344">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11334,314 +11579,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M20">
-    <cfRule type="expression" dxfId="2" priority="349">
+    <cfRule type="expression" dxfId="2" priority="373">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="350">
+    <cfRule type="expression" dxfId="3" priority="374">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21">
-    <cfRule type="expression" dxfId="2" priority="377">
+    <cfRule type="expression" dxfId="2" priority="403">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="378">
+    <cfRule type="expression" dxfId="3" priority="404">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22">
-    <cfRule type="expression" dxfId="2" priority="405">
+    <cfRule type="expression" dxfId="2" priority="433">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="406">
+    <cfRule type="expression" dxfId="3" priority="434">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M23">
-    <cfRule type="expression" dxfId="2" priority="433">
+    <cfRule type="expression" dxfId="2" priority="463">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="434">
+    <cfRule type="expression" dxfId="3" priority="464">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="expression" dxfId="2" priority="461">
+    <cfRule type="expression" dxfId="2" priority="493">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="462">
+    <cfRule type="expression" dxfId="3" priority="494">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="expression" dxfId="2" priority="489">
+    <cfRule type="expression" dxfId="2" priority="523">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="490">
+    <cfRule type="expression" dxfId="3" priority="524">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28">
-    <cfRule type="expression" dxfId="2" priority="517">
+    <cfRule type="expression" dxfId="2" priority="553">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="518">
+    <cfRule type="expression" dxfId="3" priority="554">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29">
-    <cfRule type="expression" dxfId="2" priority="545">
+    <cfRule type="expression" dxfId="2" priority="583">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="546">
+    <cfRule type="expression" dxfId="3" priority="584">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="2" priority="41">
+    <cfRule type="expression" dxfId="2" priority="43">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="42">
+    <cfRule type="expression" dxfId="3" priority="44">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32">
-    <cfRule type="expression" dxfId="2" priority="573">
+    <cfRule type="expression" dxfId="2" priority="613">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="574">
+    <cfRule type="expression" dxfId="3" priority="614">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M33">
-    <cfRule type="expression" dxfId="2" priority="601">
+    <cfRule type="expression" dxfId="2" priority="643">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="602">
+    <cfRule type="expression" dxfId="3" priority="644">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34">
-    <cfRule type="expression" dxfId="2" priority="629">
+    <cfRule type="expression" dxfId="2" priority="673">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="630">
+    <cfRule type="expression" dxfId="3" priority="674">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M35">
-    <cfRule type="expression" dxfId="2" priority="657">
+    <cfRule type="expression" dxfId="2" priority="703">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="658">
+    <cfRule type="expression" dxfId="3" priority="704">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M38">
-    <cfRule type="expression" dxfId="2" priority="685">
+    <cfRule type="expression" dxfId="2" priority="733">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="686">
+    <cfRule type="expression" dxfId="3" priority="734">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M39">
-    <cfRule type="expression" dxfId="2" priority="713">
+    <cfRule type="expression" dxfId="2" priority="763">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="714">
+    <cfRule type="expression" dxfId="3" priority="764">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="2" priority="69">
+    <cfRule type="expression" dxfId="2" priority="73">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="70">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M40">
-    <cfRule type="expression" dxfId="2" priority="741">
+    <cfRule type="expression" dxfId="2" priority="793">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="742">
+    <cfRule type="expression" dxfId="3" priority="794">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41">
-    <cfRule type="expression" dxfId="2" priority="769">
+    <cfRule type="expression" dxfId="2" priority="823">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="770">
+    <cfRule type="expression" dxfId="3" priority="824">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M44">
-    <cfRule type="expression" dxfId="2" priority="797">
+    <cfRule type="expression" dxfId="2" priority="853">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="798">
+    <cfRule type="expression" dxfId="3" priority="854">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M45">
-    <cfRule type="expression" dxfId="2" priority="825">
+    <cfRule type="expression" dxfId="2" priority="883">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="826">
+    <cfRule type="expression" dxfId="3" priority="884">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46">
-    <cfRule type="expression" dxfId="2" priority="853">
+    <cfRule type="expression" dxfId="2" priority="913">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="854">
+    <cfRule type="expression" dxfId="3" priority="914">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M47">
-    <cfRule type="expression" dxfId="2" priority="881">
+    <cfRule type="expression" dxfId="2" priority="943">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="882">
+    <cfRule type="expression" dxfId="3" priority="944">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="expression" dxfId="2" priority="97">
+    <cfRule type="expression" dxfId="2" priority="103">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="98">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M50">
-    <cfRule type="expression" dxfId="2" priority="909">
+    <cfRule type="expression" dxfId="2" priority="973">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="910">
+    <cfRule type="expression" dxfId="3" priority="974">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51">
-    <cfRule type="expression" dxfId="2" priority="937">
+    <cfRule type="expression" dxfId="2" priority="1003">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="938">
+    <cfRule type="expression" dxfId="3" priority="1004">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52">
-    <cfRule type="expression" dxfId="2" priority="965">
+    <cfRule type="expression" dxfId="2" priority="1033">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="966">
+    <cfRule type="expression" dxfId="3" priority="1034">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53">
-    <cfRule type="expression" dxfId="2" priority="993">
+    <cfRule type="expression" dxfId="2" priority="1063">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="994">
+    <cfRule type="expression" dxfId="3" priority="1064">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M56">
-    <cfRule type="expression" dxfId="2" priority="1021">
+    <cfRule type="expression" dxfId="2" priority="1093">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1022">
+    <cfRule type="expression" dxfId="3" priority="1094">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57">
-    <cfRule type="expression" dxfId="2" priority="1049">
+    <cfRule type="expression" dxfId="2" priority="1123">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1050">
+    <cfRule type="expression" dxfId="3" priority="1124">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58">
-    <cfRule type="expression" dxfId="2" priority="1077">
+    <cfRule type="expression" dxfId="2" priority="1153">
       <formula>AND('Program targeting'!$E$9&lt;&gt;"Y",NOT(ISBLANK(M58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1078">
+    <cfRule type="expression" dxfId="3" priority="1154">
       <formula>'Program targeting'!$E$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="expression" dxfId="2" priority="1105">
+    <cfRule type="expression" dxfId="2" priority="1183">
       <formula>AND('Program targeting'!$F$9&lt;&gt;"Y",NOT(ISBLANK(M59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1106">
+    <cfRule type="expression" dxfId="3" priority="1184">
       <formula>'Program targeting'!$F$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="2" priority="125">
+    <cfRule type="expression" dxfId="2" priority="133">
       <formula>AND('Program targeting'!$C$9&lt;&gt;"Y",NOT(ISBLANK(M8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="126">
+    <cfRule type="expression" dxfId="3" priority="134">
       <formula>'Program targeting'!$C$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="2" priority="153">
+    <cfRule type="expression" dxfId="2" priority="163">
       <formula>AND('Program targeting'!$D$9&lt;&gt;"Y",NOT(ISBLANK(M9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="154">
+    <cfRule type="expression" dxfId="3" priority="164">
       <formula>'Program targeting'!$D$9&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="expression" dxfId="2" priority="183">
+    <cfRule type="expression" dxfId="2" priority="195">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="184">
+    <cfRule type="expression" dxfId="3" priority="196">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="expression" dxfId="2" priority="211">
+    <cfRule type="expression" dxfId="2" priority="225">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="212">
+    <cfRule type="expression" dxfId="3" priority="226">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="expression" dxfId="2" priority="239">
+    <cfRule type="expression" dxfId="2" priority="255">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="240">
+    <cfRule type="expression" dxfId="3" priority="256">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="expression" dxfId="2" priority="267">
+    <cfRule type="expression" dxfId="2" priority="285">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="268">
+    <cfRule type="expression" dxfId="3" priority="286">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="expression" dxfId="2" priority="295">
+    <cfRule type="expression" dxfId="2" priority="315">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="296">
+    <cfRule type="expression" dxfId="3" priority="316">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="expression" dxfId="2" priority="323">
+    <cfRule type="expression" dxfId="2" priority="345">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="324">
+    <cfRule type="expression" dxfId="3" priority="346">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11654,314 +11899,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="expression" dxfId="2" priority="351">
+    <cfRule type="expression" dxfId="2" priority="375">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="352">
+    <cfRule type="expression" dxfId="3" priority="376">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="expression" dxfId="2" priority="379">
+    <cfRule type="expression" dxfId="2" priority="405">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="380">
+    <cfRule type="expression" dxfId="3" priority="406">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="expression" dxfId="2" priority="407">
+    <cfRule type="expression" dxfId="2" priority="435">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="408">
+    <cfRule type="expression" dxfId="3" priority="436">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="expression" dxfId="2" priority="435">
+    <cfRule type="expression" dxfId="2" priority="465">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="436">
+    <cfRule type="expression" dxfId="3" priority="466">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="expression" dxfId="2" priority="463">
+    <cfRule type="expression" dxfId="2" priority="495">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="464">
+    <cfRule type="expression" dxfId="3" priority="496">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="expression" dxfId="2" priority="491">
+    <cfRule type="expression" dxfId="2" priority="525">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="492">
+    <cfRule type="expression" dxfId="3" priority="526">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="expression" dxfId="2" priority="519">
+    <cfRule type="expression" dxfId="2" priority="555">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="520">
+    <cfRule type="expression" dxfId="3" priority="556">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29">
-    <cfRule type="expression" dxfId="2" priority="547">
+    <cfRule type="expression" dxfId="2" priority="585">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="548">
+    <cfRule type="expression" dxfId="3" priority="586">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="2" priority="45">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="44">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="expression" dxfId="2" priority="575">
+    <cfRule type="expression" dxfId="2" priority="615">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="576">
+    <cfRule type="expression" dxfId="3" priority="616">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="expression" dxfId="2" priority="603">
+    <cfRule type="expression" dxfId="2" priority="645">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="604">
+    <cfRule type="expression" dxfId="3" priority="646">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="expression" dxfId="2" priority="631">
+    <cfRule type="expression" dxfId="2" priority="675">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="632">
+    <cfRule type="expression" dxfId="3" priority="676">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35">
-    <cfRule type="expression" dxfId="2" priority="659">
+    <cfRule type="expression" dxfId="2" priority="705">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="660">
+    <cfRule type="expression" dxfId="3" priority="706">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38">
-    <cfRule type="expression" dxfId="2" priority="687">
+    <cfRule type="expression" dxfId="2" priority="735">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="688">
+    <cfRule type="expression" dxfId="3" priority="736">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="expression" dxfId="2" priority="715">
+    <cfRule type="expression" dxfId="2" priority="765">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="716">
+    <cfRule type="expression" dxfId="3" priority="766">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="2" priority="75">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="72">
+    <cfRule type="expression" dxfId="3" priority="76">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40">
-    <cfRule type="expression" dxfId="2" priority="743">
+    <cfRule type="expression" dxfId="2" priority="795">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="744">
+    <cfRule type="expression" dxfId="3" priority="796">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41">
-    <cfRule type="expression" dxfId="2" priority="771">
+    <cfRule type="expression" dxfId="2" priority="825">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="772">
+    <cfRule type="expression" dxfId="3" priority="826">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="expression" dxfId="2" priority="799">
+    <cfRule type="expression" dxfId="2" priority="855">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="800">
+    <cfRule type="expression" dxfId="3" priority="856">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N45">
-    <cfRule type="expression" dxfId="2" priority="827">
+    <cfRule type="expression" dxfId="2" priority="885">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="828">
+    <cfRule type="expression" dxfId="3" priority="886">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46">
-    <cfRule type="expression" dxfId="2" priority="855">
+    <cfRule type="expression" dxfId="2" priority="915">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="856">
+    <cfRule type="expression" dxfId="3" priority="916">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N47">
-    <cfRule type="expression" dxfId="2" priority="883">
+    <cfRule type="expression" dxfId="2" priority="945">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="884">
+    <cfRule type="expression" dxfId="3" priority="946">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="expression" dxfId="2" priority="99">
+    <cfRule type="expression" dxfId="2" priority="105">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="100">
+    <cfRule type="expression" dxfId="3" priority="106">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="expression" dxfId="2" priority="911">
+    <cfRule type="expression" dxfId="2" priority="975">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="912">
+    <cfRule type="expression" dxfId="3" priority="976">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51">
-    <cfRule type="expression" dxfId="2" priority="939">
+    <cfRule type="expression" dxfId="2" priority="1005">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="940">
+    <cfRule type="expression" dxfId="3" priority="1006">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N52">
-    <cfRule type="expression" dxfId="2" priority="967">
+    <cfRule type="expression" dxfId="2" priority="1035">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="968">
+    <cfRule type="expression" dxfId="3" priority="1036">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="expression" dxfId="2" priority="995">
+    <cfRule type="expression" dxfId="2" priority="1065">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="996">
+    <cfRule type="expression" dxfId="3" priority="1066">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N56">
-    <cfRule type="expression" dxfId="2" priority="1023">
+    <cfRule type="expression" dxfId="2" priority="1095">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1024">
+    <cfRule type="expression" dxfId="3" priority="1096">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57">
-    <cfRule type="expression" dxfId="2" priority="1051">
+    <cfRule type="expression" dxfId="2" priority="1125">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1052">
+    <cfRule type="expression" dxfId="3" priority="1126">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N58">
-    <cfRule type="expression" dxfId="2" priority="1079">
+    <cfRule type="expression" dxfId="2" priority="1155">
       <formula>AND('Program targeting'!$E$10&lt;&gt;"Y",NOT(ISBLANK(N58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1080">
+    <cfRule type="expression" dxfId="3" priority="1156">
       <formula>'Program targeting'!$E$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N59">
-    <cfRule type="expression" dxfId="2" priority="1107">
+    <cfRule type="expression" dxfId="2" priority="1185">
       <formula>AND('Program targeting'!$F$10&lt;&gt;"Y",NOT(ISBLANK(N59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1108">
+    <cfRule type="expression" dxfId="3" priority="1186">
       <formula>'Program targeting'!$F$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="2" priority="127">
+    <cfRule type="expression" dxfId="2" priority="135">
       <formula>AND('Program targeting'!$C$10&lt;&gt;"Y",NOT(ISBLANK(N8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="128">
+    <cfRule type="expression" dxfId="3" priority="136">
       <formula>'Program targeting'!$C$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="expression" dxfId="2" priority="155">
+    <cfRule type="expression" dxfId="2" priority="165">
       <formula>AND('Program targeting'!$D$10&lt;&gt;"Y",NOT(ISBLANK(N9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="156">
+    <cfRule type="expression" dxfId="3" priority="166">
       <formula>'Program targeting'!$D$10&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="expression" dxfId="2" priority="185">
+    <cfRule type="expression" dxfId="2" priority="197">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="186">
+    <cfRule type="expression" dxfId="3" priority="198">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="expression" dxfId="2" priority="213">
+    <cfRule type="expression" dxfId="2" priority="227">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="214">
+    <cfRule type="expression" dxfId="3" priority="228">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="expression" dxfId="2" priority="241">
+    <cfRule type="expression" dxfId="2" priority="257">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="242">
+    <cfRule type="expression" dxfId="3" priority="258">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="expression" dxfId="2" priority="269">
+    <cfRule type="expression" dxfId="2" priority="287">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="270">
+    <cfRule type="expression" dxfId="3" priority="288">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="expression" dxfId="2" priority="297">
+    <cfRule type="expression" dxfId="2" priority="317">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="298">
+    <cfRule type="expression" dxfId="3" priority="318">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="expression" dxfId="2" priority="325">
+    <cfRule type="expression" dxfId="2" priority="347">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="326">
+    <cfRule type="expression" dxfId="3" priority="348">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11974,314 +12219,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20">
-    <cfRule type="expression" dxfId="2" priority="353">
+    <cfRule type="expression" dxfId="2" priority="377">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="354">
+    <cfRule type="expression" dxfId="3" priority="378">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="expression" dxfId="2" priority="381">
+    <cfRule type="expression" dxfId="2" priority="407">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="382">
+    <cfRule type="expression" dxfId="3" priority="408">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="expression" dxfId="2" priority="409">
+    <cfRule type="expression" dxfId="2" priority="437">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="410">
+    <cfRule type="expression" dxfId="3" priority="438">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="2" priority="437">
+    <cfRule type="expression" dxfId="2" priority="467">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="438">
+    <cfRule type="expression" dxfId="3" priority="468">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="expression" dxfId="2" priority="465">
+    <cfRule type="expression" dxfId="2" priority="497">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="466">
+    <cfRule type="expression" dxfId="3" priority="498">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="expression" dxfId="2" priority="493">
+    <cfRule type="expression" dxfId="2" priority="527">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="494">
+    <cfRule type="expression" dxfId="3" priority="528">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="expression" dxfId="2" priority="521">
+    <cfRule type="expression" dxfId="2" priority="557">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="522">
+    <cfRule type="expression" dxfId="3" priority="558">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="expression" dxfId="2" priority="549">
+    <cfRule type="expression" dxfId="2" priority="587">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="550">
+    <cfRule type="expression" dxfId="3" priority="588">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="expression" dxfId="2" priority="45">
+    <cfRule type="expression" dxfId="2" priority="47">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="46">
+    <cfRule type="expression" dxfId="3" priority="48">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="expression" dxfId="2" priority="577">
+    <cfRule type="expression" dxfId="2" priority="617">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="578">
+    <cfRule type="expression" dxfId="3" priority="618">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33">
-    <cfRule type="expression" dxfId="2" priority="605">
+    <cfRule type="expression" dxfId="2" priority="647">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="606">
+    <cfRule type="expression" dxfId="3" priority="648">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="expression" dxfId="2" priority="633">
+    <cfRule type="expression" dxfId="2" priority="677">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="634">
+    <cfRule type="expression" dxfId="3" priority="678">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="expression" dxfId="2" priority="661">
+    <cfRule type="expression" dxfId="2" priority="707">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="662">
+    <cfRule type="expression" dxfId="3" priority="708">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="expression" dxfId="2" priority="689">
+    <cfRule type="expression" dxfId="2" priority="737">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="690">
+    <cfRule type="expression" dxfId="3" priority="738">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="expression" dxfId="2" priority="717">
+    <cfRule type="expression" dxfId="2" priority="767">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="718">
+    <cfRule type="expression" dxfId="3" priority="768">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="expression" dxfId="2" priority="73">
+    <cfRule type="expression" dxfId="2" priority="77">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="74">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40">
-    <cfRule type="expression" dxfId="2" priority="745">
+    <cfRule type="expression" dxfId="2" priority="797">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="746">
+    <cfRule type="expression" dxfId="3" priority="798">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41">
-    <cfRule type="expression" dxfId="2" priority="773">
+    <cfRule type="expression" dxfId="2" priority="827">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="774">
+    <cfRule type="expression" dxfId="3" priority="828">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="expression" dxfId="2" priority="801">
+    <cfRule type="expression" dxfId="2" priority="857">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="802">
+    <cfRule type="expression" dxfId="3" priority="858">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45">
-    <cfRule type="expression" dxfId="2" priority="829">
+    <cfRule type="expression" dxfId="2" priority="887">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="830">
+    <cfRule type="expression" dxfId="3" priority="888">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46">
-    <cfRule type="expression" dxfId="2" priority="857">
+    <cfRule type="expression" dxfId="2" priority="917">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="858">
+    <cfRule type="expression" dxfId="3" priority="918">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="expression" dxfId="2" priority="885">
+    <cfRule type="expression" dxfId="2" priority="947">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="886">
+    <cfRule type="expression" dxfId="3" priority="948">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="expression" dxfId="2" priority="101">
+    <cfRule type="expression" dxfId="2" priority="107">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="102">
+    <cfRule type="expression" dxfId="3" priority="108">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50">
-    <cfRule type="expression" dxfId="2" priority="913">
+    <cfRule type="expression" dxfId="2" priority="977">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="914">
+    <cfRule type="expression" dxfId="3" priority="978">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51">
-    <cfRule type="expression" dxfId="2" priority="941">
+    <cfRule type="expression" dxfId="2" priority="1007">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="942">
+    <cfRule type="expression" dxfId="3" priority="1008">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O52">
-    <cfRule type="expression" dxfId="2" priority="969">
+    <cfRule type="expression" dxfId="2" priority="1037">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="970">
+    <cfRule type="expression" dxfId="3" priority="1038">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53">
-    <cfRule type="expression" dxfId="2" priority="997">
+    <cfRule type="expression" dxfId="2" priority="1067">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="998">
+    <cfRule type="expression" dxfId="3" priority="1068">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56">
-    <cfRule type="expression" dxfId="2" priority="1025">
+    <cfRule type="expression" dxfId="2" priority="1097">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1026">
+    <cfRule type="expression" dxfId="3" priority="1098">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57">
-    <cfRule type="expression" dxfId="2" priority="1053">
+    <cfRule type="expression" dxfId="2" priority="1127">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1054">
+    <cfRule type="expression" dxfId="3" priority="1128">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O58">
-    <cfRule type="expression" dxfId="2" priority="1081">
+    <cfRule type="expression" dxfId="2" priority="1157">
       <formula>AND('Program targeting'!$E$11&lt;&gt;"Y",NOT(ISBLANK(O58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1082">
+    <cfRule type="expression" dxfId="3" priority="1158">
       <formula>'Program targeting'!$E$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O59">
-    <cfRule type="expression" dxfId="2" priority="1109">
+    <cfRule type="expression" dxfId="2" priority="1187">
       <formula>AND('Program targeting'!$F$11&lt;&gt;"Y",NOT(ISBLANK(O59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1110">
+    <cfRule type="expression" dxfId="3" priority="1188">
       <formula>'Program targeting'!$F$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="expression" dxfId="2" priority="129">
+    <cfRule type="expression" dxfId="2" priority="137">
       <formula>AND('Program targeting'!$C$11&lt;&gt;"Y",NOT(ISBLANK(O8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="130">
+    <cfRule type="expression" dxfId="3" priority="138">
       <formula>'Program targeting'!$C$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="expression" dxfId="2" priority="157">
+    <cfRule type="expression" dxfId="2" priority="167">
       <formula>AND('Program targeting'!$D$11&lt;&gt;"Y",NOT(ISBLANK(O9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="158">
+    <cfRule type="expression" dxfId="3" priority="168">
       <formula>'Program targeting'!$D$11&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="expression" dxfId="2" priority="187">
+    <cfRule type="expression" dxfId="2" priority="199">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="188">
+    <cfRule type="expression" dxfId="3" priority="200">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11">
-    <cfRule type="expression" dxfId="2" priority="215">
+    <cfRule type="expression" dxfId="2" priority="229">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="216">
+    <cfRule type="expression" dxfId="3" priority="230">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="2" priority="243">
+    <cfRule type="expression" dxfId="2" priority="259">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="244">
+    <cfRule type="expression" dxfId="3" priority="260">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="expression" dxfId="2" priority="271">
+    <cfRule type="expression" dxfId="2" priority="289">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="272">
+    <cfRule type="expression" dxfId="3" priority="290">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="expression" dxfId="2" priority="299">
+    <cfRule type="expression" dxfId="2" priority="319">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="300">
+    <cfRule type="expression" dxfId="3" priority="320">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="expression" dxfId="2" priority="327">
+    <cfRule type="expression" dxfId="2" priority="349">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="328">
+    <cfRule type="expression" dxfId="3" priority="350">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12294,314 +12539,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="expression" dxfId="2" priority="355">
+    <cfRule type="expression" dxfId="2" priority="379">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="356">
+    <cfRule type="expression" dxfId="3" priority="380">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="expression" dxfId="2" priority="383">
+    <cfRule type="expression" dxfId="2" priority="409">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="384">
+    <cfRule type="expression" dxfId="3" priority="410">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22">
-    <cfRule type="expression" dxfId="2" priority="411">
+    <cfRule type="expression" dxfId="2" priority="439">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="412">
+    <cfRule type="expression" dxfId="3" priority="440">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23">
-    <cfRule type="expression" dxfId="2" priority="439">
+    <cfRule type="expression" dxfId="2" priority="469">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="440">
+    <cfRule type="expression" dxfId="3" priority="470">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26">
-    <cfRule type="expression" dxfId="2" priority="467">
+    <cfRule type="expression" dxfId="2" priority="499">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="468">
+    <cfRule type="expression" dxfId="3" priority="500">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27">
-    <cfRule type="expression" dxfId="2" priority="495">
+    <cfRule type="expression" dxfId="2" priority="529">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="496">
+    <cfRule type="expression" dxfId="3" priority="530">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28">
-    <cfRule type="expression" dxfId="2" priority="523">
+    <cfRule type="expression" dxfId="2" priority="559">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="524">
+    <cfRule type="expression" dxfId="3" priority="560">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29">
-    <cfRule type="expression" dxfId="2" priority="551">
+    <cfRule type="expression" dxfId="2" priority="589">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="552">
+    <cfRule type="expression" dxfId="3" priority="590">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="2" priority="49">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="48">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P32">
-    <cfRule type="expression" dxfId="2" priority="579">
+    <cfRule type="expression" dxfId="2" priority="619">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="580">
+    <cfRule type="expression" dxfId="3" priority="620">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P33">
-    <cfRule type="expression" dxfId="2" priority="607">
+    <cfRule type="expression" dxfId="2" priority="649">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="608">
+    <cfRule type="expression" dxfId="3" priority="650">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P34">
-    <cfRule type="expression" dxfId="2" priority="635">
+    <cfRule type="expression" dxfId="2" priority="679">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="636">
+    <cfRule type="expression" dxfId="3" priority="680">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P35">
-    <cfRule type="expression" dxfId="2" priority="663">
+    <cfRule type="expression" dxfId="2" priority="709">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="664">
+    <cfRule type="expression" dxfId="3" priority="710">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="expression" dxfId="2" priority="691">
+    <cfRule type="expression" dxfId="2" priority="739">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="692">
+    <cfRule type="expression" dxfId="3" priority="740">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="expression" dxfId="2" priority="719">
+    <cfRule type="expression" dxfId="2" priority="769">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="720">
+    <cfRule type="expression" dxfId="3" priority="770">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4">
-    <cfRule type="expression" dxfId="2" priority="75">
+    <cfRule type="expression" dxfId="2" priority="79">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="76">
+    <cfRule type="expression" dxfId="3" priority="80">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P40">
-    <cfRule type="expression" dxfId="2" priority="747">
+    <cfRule type="expression" dxfId="2" priority="799">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="748">
+    <cfRule type="expression" dxfId="3" priority="800">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P41">
-    <cfRule type="expression" dxfId="2" priority="775">
+    <cfRule type="expression" dxfId="2" priority="829">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="776">
+    <cfRule type="expression" dxfId="3" priority="830">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P44">
-    <cfRule type="expression" dxfId="2" priority="803">
+    <cfRule type="expression" dxfId="2" priority="859">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="804">
+    <cfRule type="expression" dxfId="3" priority="860">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45">
-    <cfRule type="expression" dxfId="2" priority="831">
+    <cfRule type="expression" dxfId="2" priority="889">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="832">
+    <cfRule type="expression" dxfId="3" priority="890">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P46">
-    <cfRule type="expression" dxfId="2" priority="859">
+    <cfRule type="expression" dxfId="2" priority="919">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="860">
+    <cfRule type="expression" dxfId="3" priority="920">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P47">
-    <cfRule type="expression" dxfId="2" priority="887">
+    <cfRule type="expression" dxfId="2" priority="949">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="888">
+    <cfRule type="expression" dxfId="3" priority="950">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="2" priority="103">
+    <cfRule type="expression" dxfId="2" priority="109">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
+    <cfRule type="expression" dxfId="3" priority="110">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P50">
-    <cfRule type="expression" dxfId="2" priority="915">
+    <cfRule type="expression" dxfId="2" priority="979">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="916">
+    <cfRule type="expression" dxfId="3" priority="980">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P51">
-    <cfRule type="expression" dxfId="2" priority="943">
+    <cfRule type="expression" dxfId="2" priority="1009">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="944">
+    <cfRule type="expression" dxfId="3" priority="1010">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P52">
-    <cfRule type="expression" dxfId="2" priority="971">
+    <cfRule type="expression" dxfId="2" priority="1039">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="972">
+    <cfRule type="expression" dxfId="3" priority="1040">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P53">
-    <cfRule type="expression" dxfId="2" priority="999">
+    <cfRule type="expression" dxfId="2" priority="1069">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1000">
+    <cfRule type="expression" dxfId="3" priority="1070">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P56">
-    <cfRule type="expression" dxfId="2" priority="1027">
+    <cfRule type="expression" dxfId="2" priority="1099">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1028">
+    <cfRule type="expression" dxfId="3" priority="1100">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P57">
-    <cfRule type="expression" dxfId="2" priority="1055">
+    <cfRule type="expression" dxfId="2" priority="1129">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1056">
+    <cfRule type="expression" dxfId="3" priority="1130">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P58">
-    <cfRule type="expression" dxfId="2" priority="1083">
+    <cfRule type="expression" dxfId="2" priority="1159">
       <formula>AND('Program targeting'!$E$12&lt;&gt;"Y",NOT(ISBLANK(P58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1084">
+    <cfRule type="expression" dxfId="3" priority="1160">
       <formula>'Program targeting'!$E$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59">
-    <cfRule type="expression" dxfId="2" priority="1111">
+    <cfRule type="expression" dxfId="2" priority="1189">
       <formula>AND('Program targeting'!$F$12&lt;&gt;"Y",NOT(ISBLANK(P59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1112">
+    <cfRule type="expression" dxfId="3" priority="1190">
       <formula>'Program targeting'!$F$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8">
-    <cfRule type="expression" dxfId="2" priority="131">
+    <cfRule type="expression" dxfId="2" priority="139">
       <formula>AND('Program targeting'!$C$12&lt;&gt;"Y",NOT(ISBLANK(P8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="132">
+    <cfRule type="expression" dxfId="3" priority="140">
       <formula>'Program targeting'!$C$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9">
-    <cfRule type="expression" dxfId="2" priority="159">
+    <cfRule type="expression" dxfId="2" priority="169">
       <formula>AND('Program targeting'!$D$12&lt;&gt;"Y",NOT(ISBLANK(P9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="160">
+    <cfRule type="expression" dxfId="3" priority="170">
       <formula>'Program targeting'!$D$12&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="2" priority="189">
+    <cfRule type="expression" dxfId="2" priority="201">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="190">
+    <cfRule type="expression" dxfId="3" priority="202">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11">
-    <cfRule type="expression" dxfId="2" priority="217">
+    <cfRule type="expression" dxfId="2" priority="231">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="218">
+    <cfRule type="expression" dxfId="3" priority="232">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14">
-    <cfRule type="expression" dxfId="2" priority="245">
+    <cfRule type="expression" dxfId="2" priority="261">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="246">
+    <cfRule type="expression" dxfId="3" priority="262">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="expression" dxfId="2" priority="273">
+    <cfRule type="expression" dxfId="2" priority="291">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="274">
+    <cfRule type="expression" dxfId="3" priority="292">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="expression" dxfId="2" priority="301">
+    <cfRule type="expression" dxfId="2" priority="321">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="302">
+    <cfRule type="expression" dxfId="3" priority="322">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="expression" dxfId="2" priority="329">
+    <cfRule type="expression" dxfId="2" priority="351">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="330">
+    <cfRule type="expression" dxfId="3" priority="352">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12614,314 +12859,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="expression" dxfId="2" priority="357">
+    <cfRule type="expression" dxfId="2" priority="381">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="358">
+    <cfRule type="expression" dxfId="3" priority="382">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q21">
-    <cfRule type="expression" dxfId="2" priority="385">
+    <cfRule type="expression" dxfId="2" priority="411">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="386">
+    <cfRule type="expression" dxfId="3" priority="412">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22">
-    <cfRule type="expression" dxfId="2" priority="413">
+    <cfRule type="expression" dxfId="2" priority="441">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="414">
+    <cfRule type="expression" dxfId="3" priority="442">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="expression" dxfId="2" priority="441">
+    <cfRule type="expression" dxfId="2" priority="471">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="442">
+    <cfRule type="expression" dxfId="3" priority="472">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q26">
-    <cfRule type="expression" dxfId="2" priority="469">
+    <cfRule type="expression" dxfId="2" priority="501">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="470">
+    <cfRule type="expression" dxfId="3" priority="502">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q27">
-    <cfRule type="expression" dxfId="2" priority="497">
+    <cfRule type="expression" dxfId="2" priority="531">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="498">
+    <cfRule type="expression" dxfId="3" priority="532">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="2" priority="525">
+    <cfRule type="expression" dxfId="2" priority="561">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="526">
+    <cfRule type="expression" dxfId="3" priority="562">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="2" priority="553">
+    <cfRule type="expression" dxfId="2" priority="591">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="554">
+    <cfRule type="expression" dxfId="3" priority="592">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="expression" dxfId="2" priority="49">
+    <cfRule type="expression" dxfId="2" priority="51">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="50">
+    <cfRule type="expression" dxfId="3" priority="52">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q32">
-    <cfRule type="expression" dxfId="2" priority="581">
+    <cfRule type="expression" dxfId="2" priority="621">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="582">
+    <cfRule type="expression" dxfId="3" priority="622">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q33">
-    <cfRule type="expression" dxfId="2" priority="609">
+    <cfRule type="expression" dxfId="2" priority="651">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="610">
+    <cfRule type="expression" dxfId="3" priority="652">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q34">
-    <cfRule type="expression" dxfId="2" priority="637">
+    <cfRule type="expression" dxfId="2" priority="681">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="638">
+    <cfRule type="expression" dxfId="3" priority="682">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35">
-    <cfRule type="expression" dxfId="2" priority="665">
+    <cfRule type="expression" dxfId="2" priority="711">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="666">
+    <cfRule type="expression" dxfId="3" priority="712">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38">
-    <cfRule type="expression" dxfId="2" priority="693">
+    <cfRule type="expression" dxfId="2" priority="741">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="694">
+    <cfRule type="expression" dxfId="3" priority="742">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q39">
-    <cfRule type="expression" dxfId="2" priority="721">
+    <cfRule type="expression" dxfId="2" priority="771">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="722">
+    <cfRule type="expression" dxfId="3" priority="772">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4">
-    <cfRule type="expression" dxfId="2" priority="77">
+    <cfRule type="expression" dxfId="2" priority="81">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="78">
+    <cfRule type="expression" dxfId="3" priority="82">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q40">
-    <cfRule type="expression" dxfId="2" priority="749">
+    <cfRule type="expression" dxfId="2" priority="801">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="750">
+    <cfRule type="expression" dxfId="3" priority="802">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q41">
-    <cfRule type="expression" dxfId="2" priority="777">
+    <cfRule type="expression" dxfId="2" priority="831">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="778">
+    <cfRule type="expression" dxfId="3" priority="832">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q44">
-    <cfRule type="expression" dxfId="2" priority="805">
+    <cfRule type="expression" dxfId="2" priority="861">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="806">
+    <cfRule type="expression" dxfId="3" priority="862">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q45">
-    <cfRule type="expression" dxfId="2" priority="833">
+    <cfRule type="expression" dxfId="2" priority="891">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="834">
+    <cfRule type="expression" dxfId="3" priority="892">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46">
-    <cfRule type="expression" dxfId="2" priority="861">
+    <cfRule type="expression" dxfId="2" priority="921">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="862">
+    <cfRule type="expression" dxfId="3" priority="922">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q47">
-    <cfRule type="expression" dxfId="2" priority="889">
+    <cfRule type="expression" dxfId="2" priority="951">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="890">
+    <cfRule type="expression" dxfId="3" priority="952">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="expression" dxfId="2" priority="105">
+    <cfRule type="expression" dxfId="2" priority="111">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="106">
+    <cfRule type="expression" dxfId="3" priority="112">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q50">
-    <cfRule type="expression" dxfId="2" priority="917">
+    <cfRule type="expression" dxfId="2" priority="981">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="918">
+    <cfRule type="expression" dxfId="3" priority="982">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q51">
-    <cfRule type="expression" dxfId="2" priority="945">
+    <cfRule type="expression" dxfId="2" priority="1011">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="946">
+    <cfRule type="expression" dxfId="3" priority="1012">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q52">
-    <cfRule type="expression" dxfId="2" priority="973">
+    <cfRule type="expression" dxfId="2" priority="1041">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="974">
+    <cfRule type="expression" dxfId="3" priority="1042">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q53">
-    <cfRule type="expression" dxfId="2" priority="1001">
+    <cfRule type="expression" dxfId="2" priority="1071">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1002">
+    <cfRule type="expression" dxfId="3" priority="1072">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q56">
-    <cfRule type="expression" dxfId="2" priority="1029">
+    <cfRule type="expression" dxfId="2" priority="1101">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1030">
+    <cfRule type="expression" dxfId="3" priority="1102">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q57">
-    <cfRule type="expression" dxfId="2" priority="1057">
+    <cfRule type="expression" dxfId="2" priority="1131">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1058">
+    <cfRule type="expression" dxfId="3" priority="1132">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q58">
-    <cfRule type="expression" dxfId="2" priority="1085">
+    <cfRule type="expression" dxfId="2" priority="1161">
       <formula>AND('Program targeting'!$E$13&lt;&gt;"Y",NOT(ISBLANK(Q58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1086">
+    <cfRule type="expression" dxfId="3" priority="1162">
       <formula>'Program targeting'!$E$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q59">
-    <cfRule type="expression" dxfId="2" priority="1113">
+    <cfRule type="expression" dxfId="2" priority="1191">
       <formula>AND('Program targeting'!$F$13&lt;&gt;"Y",NOT(ISBLANK(Q59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1114">
+    <cfRule type="expression" dxfId="3" priority="1192">
       <formula>'Program targeting'!$F$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" dxfId="2" priority="133">
+    <cfRule type="expression" dxfId="2" priority="141">
       <formula>AND('Program targeting'!$C$13&lt;&gt;"Y",NOT(ISBLANK(Q8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="134">
+    <cfRule type="expression" dxfId="3" priority="142">
       <formula>'Program targeting'!$C$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="2" priority="161">
+    <cfRule type="expression" dxfId="2" priority="171">
       <formula>AND('Program targeting'!$D$13&lt;&gt;"Y",NOT(ISBLANK(Q9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="162">
+    <cfRule type="expression" dxfId="3" priority="172">
       <formula>'Program targeting'!$D$13&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="expression" dxfId="2" priority="191">
+    <cfRule type="expression" dxfId="2" priority="203">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="192">
+    <cfRule type="expression" dxfId="3" priority="204">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="expression" dxfId="2" priority="219">
+    <cfRule type="expression" dxfId="2" priority="233">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="220">
+    <cfRule type="expression" dxfId="3" priority="234">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="expression" dxfId="2" priority="247">
+    <cfRule type="expression" dxfId="2" priority="263">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="248">
+    <cfRule type="expression" dxfId="3" priority="264">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="expression" dxfId="2" priority="275">
+    <cfRule type="expression" dxfId="2" priority="293">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="276">
+    <cfRule type="expression" dxfId="3" priority="294">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="expression" dxfId="2" priority="303">
+    <cfRule type="expression" dxfId="2" priority="323">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="304">
+    <cfRule type="expression" dxfId="3" priority="324">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="expression" dxfId="2" priority="331">
+    <cfRule type="expression" dxfId="2" priority="353">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="332">
+    <cfRule type="expression" dxfId="3" priority="354">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12934,314 +13179,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R20">
-    <cfRule type="expression" dxfId="2" priority="359">
+    <cfRule type="expression" dxfId="2" priority="383">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="360">
+    <cfRule type="expression" dxfId="3" priority="384">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R21">
-    <cfRule type="expression" dxfId="2" priority="387">
+    <cfRule type="expression" dxfId="2" priority="413">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="388">
+    <cfRule type="expression" dxfId="3" priority="414">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22">
-    <cfRule type="expression" dxfId="2" priority="415">
+    <cfRule type="expression" dxfId="2" priority="443">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="416">
+    <cfRule type="expression" dxfId="3" priority="444">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23">
-    <cfRule type="expression" dxfId="2" priority="443">
+    <cfRule type="expression" dxfId="2" priority="473">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="444">
+    <cfRule type="expression" dxfId="3" priority="474">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R26">
-    <cfRule type="expression" dxfId="2" priority="471">
+    <cfRule type="expression" dxfId="2" priority="503">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="472">
+    <cfRule type="expression" dxfId="3" priority="504">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R27">
-    <cfRule type="expression" dxfId="2" priority="499">
+    <cfRule type="expression" dxfId="2" priority="533">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="500">
+    <cfRule type="expression" dxfId="3" priority="534">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28">
-    <cfRule type="expression" dxfId="2" priority="527">
+    <cfRule type="expression" dxfId="2" priority="563">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="528">
+    <cfRule type="expression" dxfId="3" priority="564">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29">
-    <cfRule type="expression" dxfId="2" priority="555">
+    <cfRule type="expression" dxfId="2" priority="593">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="556">
+    <cfRule type="expression" dxfId="3" priority="594">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="2" priority="53">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="52">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R32">
-    <cfRule type="expression" dxfId="2" priority="583">
+    <cfRule type="expression" dxfId="2" priority="623">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="584">
+    <cfRule type="expression" dxfId="3" priority="624">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R33">
-    <cfRule type="expression" dxfId="2" priority="611">
+    <cfRule type="expression" dxfId="2" priority="653">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="612">
+    <cfRule type="expression" dxfId="3" priority="654">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R34">
-    <cfRule type="expression" dxfId="2" priority="639">
+    <cfRule type="expression" dxfId="2" priority="683">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="640">
+    <cfRule type="expression" dxfId="3" priority="684">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R35">
-    <cfRule type="expression" dxfId="2" priority="667">
+    <cfRule type="expression" dxfId="2" priority="713">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="668">
+    <cfRule type="expression" dxfId="3" priority="714">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R38">
-    <cfRule type="expression" dxfId="2" priority="695">
+    <cfRule type="expression" dxfId="2" priority="743">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="696">
+    <cfRule type="expression" dxfId="3" priority="744">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R39">
-    <cfRule type="expression" dxfId="2" priority="723">
+    <cfRule type="expression" dxfId="2" priority="773">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="724">
+    <cfRule type="expression" dxfId="3" priority="774">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="expression" dxfId="2" priority="79">
+    <cfRule type="expression" dxfId="2" priority="83">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="80">
+    <cfRule type="expression" dxfId="3" priority="84">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R40">
-    <cfRule type="expression" dxfId="2" priority="751">
+    <cfRule type="expression" dxfId="2" priority="803">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="752">
+    <cfRule type="expression" dxfId="3" priority="804">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R41">
-    <cfRule type="expression" dxfId="2" priority="779">
+    <cfRule type="expression" dxfId="2" priority="833">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="780">
+    <cfRule type="expression" dxfId="3" priority="834">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R44">
-    <cfRule type="expression" dxfId="2" priority="807">
+    <cfRule type="expression" dxfId="2" priority="863">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="808">
+    <cfRule type="expression" dxfId="3" priority="864">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45">
-    <cfRule type="expression" dxfId="2" priority="835">
+    <cfRule type="expression" dxfId="2" priority="893">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="836">
+    <cfRule type="expression" dxfId="3" priority="894">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R46">
-    <cfRule type="expression" dxfId="2" priority="863">
+    <cfRule type="expression" dxfId="2" priority="923">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="864">
+    <cfRule type="expression" dxfId="3" priority="924">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R47">
-    <cfRule type="expression" dxfId="2" priority="891">
+    <cfRule type="expression" dxfId="2" priority="953">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="892">
+    <cfRule type="expression" dxfId="3" priority="954">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R5">
-    <cfRule type="expression" dxfId="2" priority="107">
+    <cfRule type="expression" dxfId="2" priority="113">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="108">
+    <cfRule type="expression" dxfId="3" priority="114">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R50">
-    <cfRule type="expression" dxfId="2" priority="919">
+    <cfRule type="expression" dxfId="2" priority="983">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="920">
+    <cfRule type="expression" dxfId="3" priority="984">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R51">
-    <cfRule type="expression" dxfId="2" priority="947">
+    <cfRule type="expression" dxfId="2" priority="1013">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="948">
+    <cfRule type="expression" dxfId="3" priority="1014">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R52">
-    <cfRule type="expression" dxfId="2" priority="975">
+    <cfRule type="expression" dxfId="2" priority="1043">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="976">
+    <cfRule type="expression" dxfId="3" priority="1044">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R53">
-    <cfRule type="expression" dxfId="2" priority="1003">
+    <cfRule type="expression" dxfId="2" priority="1073">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1004">
+    <cfRule type="expression" dxfId="3" priority="1074">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R56">
-    <cfRule type="expression" dxfId="2" priority="1031">
+    <cfRule type="expression" dxfId="2" priority="1103">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1032">
+    <cfRule type="expression" dxfId="3" priority="1104">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R57">
-    <cfRule type="expression" dxfId="2" priority="1059">
+    <cfRule type="expression" dxfId="2" priority="1133">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1060">
+    <cfRule type="expression" dxfId="3" priority="1134">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R58">
-    <cfRule type="expression" dxfId="2" priority="1087">
+    <cfRule type="expression" dxfId="2" priority="1163">
       <formula>AND('Program targeting'!$E$14&lt;&gt;"Y",NOT(ISBLANK(R58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1088">
+    <cfRule type="expression" dxfId="3" priority="1164">
       <formula>'Program targeting'!$E$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59">
-    <cfRule type="expression" dxfId="2" priority="1115">
+    <cfRule type="expression" dxfId="2" priority="1193">
       <formula>AND('Program targeting'!$F$14&lt;&gt;"Y",NOT(ISBLANK(R59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1116">
+    <cfRule type="expression" dxfId="3" priority="1194">
       <formula>'Program targeting'!$F$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8">
-    <cfRule type="expression" dxfId="2" priority="135">
+    <cfRule type="expression" dxfId="2" priority="143">
       <formula>AND('Program targeting'!$C$14&lt;&gt;"Y",NOT(ISBLANK(R8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="136">
+    <cfRule type="expression" dxfId="3" priority="144">
       <formula>'Program targeting'!$C$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="expression" dxfId="2" priority="163">
+    <cfRule type="expression" dxfId="2" priority="173">
       <formula>AND('Program targeting'!$D$14&lt;&gt;"Y",NOT(ISBLANK(R9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="164">
+    <cfRule type="expression" dxfId="3" priority="174">
       <formula>'Program targeting'!$D$14&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S10">
-    <cfRule type="expression" dxfId="2" priority="193">
+    <cfRule type="expression" dxfId="2" priority="205">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="194">
+    <cfRule type="expression" dxfId="3" priority="206">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11">
-    <cfRule type="expression" dxfId="2" priority="221">
+    <cfRule type="expression" dxfId="2" priority="235">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="222">
+    <cfRule type="expression" dxfId="3" priority="236">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14">
-    <cfRule type="expression" dxfId="2" priority="249">
+    <cfRule type="expression" dxfId="2" priority="265">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="250">
+    <cfRule type="expression" dxfId="3" priority="266">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S15">
-    <cfRule type="expression" dxfId="2" priority="277">
+    <cfRule type="expression" dxfId="2" priority="295">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="278">
+    <cfRule type="expression" dxfId="3" priority="296">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S16">
-    <cfRule type="expression" dxfId="2" priority="305">
+    <cfRule type="expression" dxfId="2" priority="325">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="306">
+    <cfRule type="expression" dxfId="3" priority="326">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="2" priority="333">
+    <cfRule type="expression" dxfId="2" priority="355">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="334">
+    <cfRule type="expression" dxfId="3" priority="356">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13254,314 +13499,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S20">
-    <cfRule type="expression" dxfId="2" priority="361">
+    <cfRule type="expression" dxfId="2" priority="385">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="362">
+    <cfRule type="expression" dxfId="3" priority="386">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S21">
-    <cfRule type="expression" dxfId="2" priority="389">
+    <cfRule type="expression" dxfId="2" priority="415">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="390">
+    <cfRule type="expression" dxfId="3" priority="416">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22">
-    <cfRule type="expression" dxfId="2" priority="417">
+    <cfRule type="expression" dxfId="2" priority="445">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="418">
+    <cfRule type="expression" dxfId="3" priority="446">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="2" priority="445">
+    <cfRule type="expression" dxfId="2" priority="475">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="446">
+    <cfRule type="expression" dxfId="3" priority="476">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S26">
-    <cfRule type="expression" dxfId="2" priority="473">
+    <cfRule type="expression" dxfId="2" priority="505">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="474">
+    <cfRule type="expression" dxfId="3" priority="506">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S27">
-    <cfRule type="expression" dxfId="2" priority="501">
+    <cfRule type="expression" dxfId="2" priority="535">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="502">
+    <cfRule type="expression" dxfId="3" priority="536">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S28">
-    <cfRule type="expression" dxfId="2" priority="529">
+    <cfRule type="expression" dxfId="2" priority="565">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="530">
+    <cfRule type="expression" dxfId="3" priority="566">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S29">
-    <cfRule type="expression" dxfId="2" priority="557">
+    <cfRule type="expression" dxfId="2" priority="595">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="558">
+    <cfRule type="expression" dxfId="3" priority="596">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="expression" dxfId="2" priority="53">
+    <cfRule type="expression" dxfId="2" priority="55">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="54">
+    <cfRule type="expression" dxfId="3" priority="56">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S32">
-    <cfRule type="expression" dxfId="2" priority="585">
+    <cfRule type="expression" dxfId="2" priority="625">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="586">
+    <cfRule type="expression" dxfId="3" priority="626">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S33">
-    <cfRule type="expression" dxfId="2" priority="613">
+    <cfRule type="expression" dxfId="2" priority="655">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="614">
+    <cfRule type="expression" dxfId="3" priority="656">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S34">
-    <cfRule type="expression" dxfId="2" priority="641">
+    <cfRule type="expression" dxfId="2" priority="685">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="642">
+    <cfRule type="expression" dxfId="3" priority="686">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S35">
-    <cfRule type="expression" dxfId="2" priority="669">
+    <cfRule type="expression" dxfId="2" priority="715">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="670">
+    <cfRule type="expression" dxfId="3" priority="716">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S38">
-    <cfRule type="expression" dxfId="2" priority="697">
+    <cfRule type="expression" dxfId="2" priority="745">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="698">
+    <cfRule type="expression" dxfId="3" priority="746">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S39">
-    <cfRule type="expression" dxfId="2" priority="725">
+    <cfRule type="expression" dxfId="2" priority="775">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="726">
+    <cfRule type="expression" dxfId="3" priority="776">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S4">
-    <cfRule type="expression" dxfId="2" priority="81">
+    <cfRule type="expression" dxfId="2" priority="85">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="82">
+    <cfRule type="expression" dxfId="3" priority="86">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S40">
-    <cfRule type="expression" dxfId="2" priority="753">
+    <cfRule type="expression" dxfId="2" priority="805">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="754">
+    <cfRule type="expression" dxfId="3" priority="806">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S41">
-    <cfRule type="expression" dxfId="2" priority="781">
+    <cfRule type="expression" dxfId="2" priority="835">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="782">
+    <cfRule type="expression" dxfId="3" priority="836">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S44">
-    <cfRule type="expression" dxfId="2" priority="809">
+    <cfRule type="expression" dxfId="2" priority="865">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="810">
+    <cfRule type="expression" dxfId="3" priority="866">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S45">
-    <cfRule type="expression" dxfId="2" priority="837">
+    <cfRule type="expression" dxfId="2" priority="895">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="838">
+    <cfRule type="expression" dxfId="3" priority="896">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S46">
-    <cfRule type="expression" dxfId="2" priority="865">
+    <cfRule type="expression" dxfId="2" priority="925">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="866">
+    <cfRule type="expression" dxfId="3" priority="926">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S47">
-    <cfRule type="expression" dxfId="2" priority="893">
+    <cfRule type="expression" dxfId="2" priority="955">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="894">
+    <cfRule type="expression" dxfId="3" priority="956">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="expression" dxfId="2" priority="109">
+    <cfRule type="expression" dxfId="2" priority="115">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="110">
+    <cfRule type="expression" dxfId="3" priority="116">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S50">
-    <cfRule type="expression" dxfId="2" priority="921">
+    <cfRule type="expression" dxfId="2" priority="985">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="922">
+    <cfRule type="expression" dxfId="3" priority="986">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S51">
-    <cfRule type="expression" dxfId="2" priority="949">
+    <cfRule type="expression" dxfId="2" priority="1015">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="950">
+    <cfRule type="expression" dxfId="3" priority="1016">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S52">
-    <cfRule type="expression" dxfId="2" priority="977">
+    <cfRule type="expression" dxfId="2" priority="1045">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="978">
+    <cfRule type="expression" dxfId="3" priority="1046">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S53">
-    <cfRule type="expression" dxfId="2" priority="1005">
+    <cfRule type="expression" dxfId="2" priority="1075">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1006">
+    <cfRule type="expression" dxfId="3" priority="1076">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S56">
-    <cfRule type="expression" dxfId="2" priority="1033">
+    <cfRule type="expression" dxfId="2" priority="1105">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1034">
+    <cfRule type="expression" dxfId="3" priority="1106">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S57">
-    <cfRule type="expression" dxfId="2" priority="1061">
+    <cfRule type="expression" dxfId="2" priority="1135">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1062">
+    <cfRule type="expression" dxfId="3" priority="1136">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S58">
-    <cfRule type="expression" dxfId="2" priority="1089">
+    <cfRule type="expression" dxfId="2" priority="1165">
       <formula>AND('Program targeting'!$E$15&lt;&gt;"Y",NOT(ISBLANK(S58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1090">
+    <cfRule type="expression" dxfId="3" priority="1166">
       <formula>'Program targeting'!$E$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S59">
-    <cfRule type="expression" dxfId="2" priority="1117">
+    <cfRule type="expression" dxfId="2" priority="1195">
       <formula>AND('Program targeting'!$F$15&lt;&gt;"Y",NOT(ISBLANK(S59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1118">
+    <cfRule type="expression" dxfId="3" priority="1196">
       <formula>'Program targeting'!$F$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S8">
-    <cfRule type="expression" dxfId="2" priority="137">
+    <cfRule type="expression" dxfId="2" priority="145">
       <formula>AND('Program targeting'!$C$15&lt;&gt;"Y",NOT(ISBLANK(S8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="138">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>'Program targeting'!$C$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="expression" dxfId="2" priority="165">
+    <cfRule type="expression" dxfId="2" priority="175">
       <formula>AND('Program targeting'!$D$15&lt;&gt;"Y",NOT(ISBLANK(S9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="166">
+    <cfRule type="expression" dxfId="3" priority="176">
       <formula>'Program targeting'!$D$15&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T10">
-    <cfRule type="expression" dxfId="2" priority="195">
+    <cfRule type="expression" dxfId="2" priority="207">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T10)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="196">
+    <cfRule type="expression" dxfId="3" priority="208">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11">
-    <cfRule type="expression" dxfId="2" priority="223">
+    <cfRule type="expression" dxfId="2" priority="237">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T11)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="224">
+    <cfRule type="expression" dxfId="3" priority="238">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14">
-    <cfRule type="expression" dxfId="2" priority="251">
+    <cfRule type="expression" dxfId="2" priority="267">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T14)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="252">
+    <cfRule type="expression" dxfId="3" priority="268">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15">
-    <cfRule type="expression" dxfId="2" priority="279">
+    <cfRule type="expression" dxfId="2" priority="297">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T15)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="280">
+    <cfRule type="expression" dxfId="3" priority="298">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T16">
-    <cfRule type="expression" dxfId="2" priority="307">
+    <cfRule type="expression" dxfId="2" priority="327">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T16)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="308">
+    <cfRule type="expression" dxfId="3" priority="328">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17">
-    <cfRule type="expression" dxfId="2" priority="335">
+    <cfRule type="expression" dxfId="2" priority="357">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T17)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="336">
+    <cfRule type="expression" dxfId="3" priority="358">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13574,266 +13819,266 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20">
-    <cfRule type="expression" dxfId="2" priority="363">
+    <cfRule type="expression" dxfId="2" priority="387">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="364">
+    <cfRule type="expression" dxfId="3" priority="388">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21">
-    <cfRule type="expression" dxfId="2" priority="391">
+    <cfRule type="expression" dxfId="2" priority="417">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="392">
+    <cfRule type="expression" dxfId="3" priority="418">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22">
-    <cfRule type="expression" dxfId="2" priority="419">
+    <cfRule type="expression" dxfId="2" priority="447">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T22)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="420">
+    <cfRule type="expression" dxfId="3" priority="448">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T23">
-    <cfRule type="expression" dxfId="2" priority="447">
+    <cfRule type="expression" dxfId="2" priority="477">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="448">
+    <cfRule type="expression" dxfId="3" priority="478">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T26">
-    <cfRule type="expression" dxfId="2" priority="475">
+    <cfRule type="expression" dxfId="2" priority="507">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="476">
+    <cfRule type="expression" dxfId="3" priority="508">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T27">
-    <cfRule type="expression" dxfId="2" priority="503">
+    <cfRule type="expression" dxfId="2" priority="537">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T27)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="504">
+    <cfRule type="expression" dxfId="3" priority="538">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="2" priority="531">
+    <cfRule type="expression" dxfId="2" priority="567">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T28)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="532">
+    <cfRule type="expression" dxfId="3" priority="568">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T29">
-    <cfRule type="expression" dxfId="2" priority="559">
+    <cfRule type="expression" dxfId="2" priority="597">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T29)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="560">
+    <cfRule type="expression" dxfId="3" priority="598">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T3)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="56">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T32">
-    <cfRule type="expression" dxfId="2" priority="587">
+    <cfRule type="expression" dxfId="2" priority="627">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T32)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="588">
+    <cfRule type="expression" dxfId="3" priority="628">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T33">
-    <cfRule type="expression" dxfId="2" priority="615">
+    <cfRule type="expression" dxfId="2" priority="657">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T33)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="616">
+    <cfRule type="expression" dxfId="3" priority="658">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T34">
-    <cfRule type="expression" dxfId="2" priority="643">
+    <cfRule type="expression" dxfId="2" priority="687">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T34)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="644">
+    <cfRule type="expression" dxfId="3" priority="688">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35">
-    <cfRule type="expression" dxfId="2" priority="671">
+    <cfRule type="expression" dxfId="2" priority="717">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T35)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="672">
+    <cfRule type="expression" dxfId="3" priority="718">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38">
-    <cfRule type="expression" dxfId="2" priority="699">
+    <cfRule type="expression" dxfId="2" priority="747">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T38)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="700">
+    <cfRule type="expression" dxfId="3" priority="748">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T39">
-    <cfRule type="expression" dxfId="2" priority="727">
+    <cfRule type="expression" dxfId="2" priority="777">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T39)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="728">
+    <cfRule type="expression" dxfId="3" priority="778">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4">
-    <cfRule type="expression" dxfId="2" priority="83">
+    <cfRule type="expression" dxfId="2" priority="87">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="84">
+    <cfRule type="expression" dxfId="3" priority="88">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T40">
-    <cfRule type="expression" dxfId="2" priority="755">
+    <cfRule type="expression" dxfId="2" priority="807">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T40)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="756">
+    <cfRule type="expression" dxfId="3" priority="808">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T41">
-    <cfRule type="expression" dxfId="2" priority="783">
+    <cfRule type="expression" dxfId="2" priority="837">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T41)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="784">
+    <cfRule type="expression" dxfId="3" priority="838">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T44">
-    <cfRule type="expression" dxfId="2" priority="811">
+    <cfRule type="expression" dxfId="2" priority="867">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="812">
+    <cfRule type="expression" dxfId="3" priority="868">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T45">
-    <cfRule type="expression" dxfId="2" priority="839">
+    <cfRule type="expression" dxfId="2" priority="897">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T45)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="840">
+    <cfRule type="expression" dxfId="3" priority="898">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46">
-    <cfRule type="expression" dxfId="2" priority="867">
+    <cfRule type="expression" dxfId="2" priority="927">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T46)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="868">
+    <cfRule type="expression" dxfId="3" priority="928">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T47">
-    <cfRule type="expression" dxfId="2" priority="895">
+    <cfRule type="expression" dxfId="2" priority="957">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T47)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="896">
+    <cfRule type="expression" dxfId="3" priority="958">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="expression" dxfId="2" priority="111">
+    <cfRule type="expression" dxfId="2" priority="117">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T5)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="112">
+    <cfRule type="expression" dxfId="3" priority="118">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T50">
-    <cfRule type="expression" dxfId="2" priority="923">
+    <cfRule type="expression" dxfId="2" priority="987">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T50)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="924">
+    <cfRule type="expression" dxfId="3" priority="988">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T51">
-    <cfRule type="expression" dxfId="2" priority="951">
+    <cfRule type="expression" dxfId="2" priority="1017">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T51)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="952">
+    <cfRule type="expression" dxfId="3" priority="1018">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T52">
-    <cfRule type="expression" dxfId="2" priority="979">
+    <cfRule type="expression" dxfId="2" priority="1047">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T52)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="980">
+    <cfRule type="expression" dxfId="3" priority="1048">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53">
-    <cfRule type="expression" dxfId="2" priority="1007">
+    <cfRule type="expression" dxfId="2" priority="1077">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T53)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1008">
+    <cfRule type="expression" dxfId="3" priority="1078">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T56">
-    <cfRule type="expression" dxfId="2" priority="1035">
+    <cfRule type="expression" dxfId="2" priority="1107">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T56)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1036">
+    <cfRule type="expression" dxfId="3" priority="1108">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T57">
-    <cfRule type="expression" dxfId="2" priority="1063">
+    <cfRule type="expression" dxfId="2" priority="1137">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T57)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1064">
+    <cfRule type="expression" dxfId="3" priority="1138">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T58">
-    <cfRule type="expression" dxfId="2" priority="1091">
+    <cfRule type="expression" dxfId="2" priority="1167">
       <formula>AND('Program targeting'!$E$16&lt;&gt;"Y",NOT(ISBLANK(T58)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1092">
+    <cfRule type="expression" dxfId="3" priority="1168">
       <formula>'Program targeting'!$E$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T59">
-    <cfRule type="expression" dxfId="2" priority="1119">
+    <cfRule type="expression" dxfId="2" priority="1197">
       <formula>AND('Program targeting'!$F$16&lt;&gt;"Y",NOT(ISBLANK(T59)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="1120">
+    <cfRule type="expression" dxfId="3" priority="1198">
       <formula>'Program targeting'!$F$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T8">
-    <cfRule type="expression" dxfId="2" priority="139">
+    <cfRule type="expression" dxfId="2" priority="147">
       <formula>AND('Program targeting'!$C$16&lt;&gt;"Y",NOT(ISBLANK(T8)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="140">
+    <cfRule type="expression" dxfId="3" priority="148">
       <formula>'Program targeting'!$C$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="expression" dxfId="2" priority="167">
+    <cfRule type="expression" dxfId="2" priority="177">
       <formula>AND('Program targeting'!$D$16&lt;&gt;"Y",NOT(ISBLANK(T9)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="168">
+    <cfRule type="expression" dxfId="3" priority="178">
       <formula>'Program targeting'!$D$16&lt;&gt;"Y"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/databooks/progbook_malaria.xlsx
+++ b/tests/databooks/progbook_malaria.xlsx
@@ -7244,85 +7244,85 @@
   </conditionalFormatting>
   <dataValidations count="28">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B60">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B87">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B88">
       <formula1>"people/year,people"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
-      <formula1>"$/person,$/person/year"</formula1>
+      <formula1>"$/person (one-off),$/person/year"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
       <formula1>"people/year,people"</formula1>
